--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505A9113-CB84-1140-81BB-365F2FDDDC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F5F536-20F8-6641-9D66-77CADB189FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="-21140" windowWidth="38400" windowHeight="14080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="-21140" windowWidth="38400" windowHeight="14080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -56,10 +56,18 @@
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4463,7 +4471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9729,7 +9737,7 @@
       <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C300" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F5F536-20F8-6641-9D66-77CADB189FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89515793-530F-8143-9703-88CC0DE0ABDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-21140" windowWidth="38400" windowHeight="14080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="3660" windowWidth="40960" windowHeight="25140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2048,6 +2048,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2075,14 +2083,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4471,7 +4471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4492,12 +4492,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="24" t="s">
         <v>11</v>
       </c>
@@ -4515,20 +4515,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -4538,10 +4538,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="30" t="s">
         <v>562</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -4711,7 +4711,7 @@
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
-      <c r="B9" s="39"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13" t="s">
         <v>50</v>
       </c>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="31" t="s">
         <v>561</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -4763,7 +4763,7 @@
     </row>
     <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="30" t="s">
         <v>563</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -9776,12 +9776,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="29" t="s">
         <v>11</v>
       </c>
@@ -9799,20 +9799,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -9822,10 +9822,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="30" t="s">
         <v>562</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -9995,7 +9995,7 @@
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
-      <c r="B9" s="39"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13" t="s">
         <v>50</v>
       </c>
@@ -10020,7 +10020,7 @@
     </row>
     <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="31" t="s">
         <v>561</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -10047,7 +10047,7 @@
     </row>
     <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="30" t="s">
         <v>563</v>
       </c>
       <c r="C11" s="13" t="s">

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89515793-530F-8143-9703-88CC0DE0ABDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{89515793-530F-8143-9703-88CC0DE0ABDB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="3660" windowWidth="40960" windowHeight="25140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="25140" windowWidth="40960" xWindow="5120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="3660"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="basic" sheetId="2" r:id="rId2"/>
-    <sheet name="iterate" sheetId="5" r:id="rId3"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="basic" r:id="rId2" sheetId="2"/>
+    <sheet name="iterate" r:id="rId3" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1781,13 +1781,20 @@
   </si>
   <si>
     <t>v2.0-1.[NUMBER(${buildnum}) =&gt; add(${run})]-</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1871,8 +1878,210 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1897,8 +2106,314 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1936,160 +2451,908 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="72">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="7" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="10" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="13" fontId="15" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="16" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="18" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="22" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="13" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="25" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="25" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="49" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="52" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="52" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2213,7 +3476,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2238,10 +3501,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2276,7 +3539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2311,7 +3574,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2405,21 +3668,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2436,7 +3699,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2488,26 +3751,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2602,7 +3865,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
@@ -2697,7 +3960,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>450</v>
       </c>
@@ -2783,7 +4046,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>472</v>
       </c>
@@ -2866,7 +4129,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>543</v>
       </c>
@@ -2940,7 +4203,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3008,7 +4271,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3070,7 +4333,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3126,7 +4389,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3173,7 +4436,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3214,7 +4477,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>344</v>
       </c>
@@ -3252,7 +4515,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3290,7 +4553,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -3325,7 +4588,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3360,7 +4623,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>503</v>
       </c>
@@ -3392,7 +4655,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>473</v>
       </c>
@@ -3424,7 +4687,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -3450,12 +4713,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>568</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -3473,12 +4736,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>410</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -3493,12 +4756,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -3513,18 +4776,18 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>375</v>
+        <v>569</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -3533,12 +4796,12 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>533</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -3553,12 +4816,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>533</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -3573,12 +4836,12 @@
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -3593,12 +4856,12 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -3613,12 +4876,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -3633,12 +4896,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -3653,12 +4916,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -3670,12 +4933,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>464</v>
+        <v>223</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -3687,12 +4950,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -3701,12 +4964,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -3715,9 +4978,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -3726,9 +4989,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -3737,9 +5000,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
@@ -3748,9 +5011,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="35" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -3759,9 +5022,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -3770,9 +5033,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -3781,9 +5044,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -3792,9 +5055,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -3803,7 +5066,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -3811,7 +5077,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="41" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="H41" t="s">
         <v>76</v>
       </c>
@@ -3819,7 +5085,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="42" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="H42" t="s">
         <v>208</v>
       </c>
@@ -3827,7 +5093,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="H43" t="s">
         <v>534</v>
       </c>
@@ -3835,7 +5101,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="H44" t="s">
         <v>285</v>
       </c>
@@ -3843,7 +5109,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="H45" t="s">
         <v>296</v>
       </c>
@@ -3851,7 +5117,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="H46" t="s">
         <v>297</v>
       </c>
@@ -3859,7 +5125,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="H47" t="s">
         <v>340</v>
       </c>
@@ -3867,7 +5133,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="H48" t="s">
         <v>339</v>
       </c>
@@ -3875,7 +5141,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="H49" t="s">
         <v>207</v>
       </c>
@@ -3883,7 +5149,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="50" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="H50" t="s">
         <v>317</v>
       </c>
@@ -3891,7 +5157,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="H51" t="s">
         <v>336</v>
       </c>
@@ -3899,7 +5165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="H52" t="s">
         <v>363</v>
       </c>
@@ -3907,7 +5173,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="53" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="H53" t="s">
         <v>298</v>
       </c>
@@ -3915,7 +5181,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="H54" t="s">
         <v>351</v>
       </c>
@@ -3923,7 +5189,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="H55" t="s">
         <v>328</v>
       </c>
@@ -3931,7 +5197,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="H56" t="s">
         <v>264</v>
       </c>
@@ -3939,7 +5205,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="57" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="H57" t="s">
         <v>288</v>
       </c>
@@ -3947,7 +5213,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="58" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="H58" t="s">
         <v>289</v>
       </c>
@@ -3955,7 +5221,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="H59" t="s">
         <v>535</v>
       </c>
@@ -3963,7 +5229,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="60" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="H60" t="s">
         <v>290</v>
       </c>
@@ -3971,7 +5237,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="H61" t="s">
         <v>299</v>
       </c>
@@ -3979,7 +5245,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="H62" t="s">
         <v>308</v>
       </c>
@@ -3987,7 +5253,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="H63" t="s">
         <v>334</v>
       </c>
@@ -3995,7 +5261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="H64" t="s">
         <v>305</v>
       </c>
@@ -4003,7 +5269,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="H65" t="s">
         <v>306</v>
       </c>
@@ -4011,7 +5277,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="H66" t="s">
         <v>364</v>
       </c>
@@ -4019,7 +5285,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="H67" t="s">
         <v>365</v>
       </c>
@@ -4027,7 +5293,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="H68" t="s">
         <v>342</v>
       </c>
@@ -4035,7 +5301,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="69" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="H69" t="s">
         <v>309</v>
       </c>
@@ -4043,7 +5309,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="H70" t="s">
         <v>265</v>
       </c>
@@ -4051,7 +5317,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="H71" t="s">
         <v>521</v>
       </c>
@@ -4059,7 +5325,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="72" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="H72" t="s">
         <v>310</v>
       </c>
@@ -4067,7 +5333,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="H73" t="s">
         <v>405</v>
       </c>
@@ -4075,7 +5341,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="H74" t="s">
         <v>300</v>
       </c>
@@ -4083,7 +5349,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="H75" t="s">
         <v>406</v>
       </c>
@@ -4091,7 +5357,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="H76" t="s">
         <v>258</v>
       </c>
@@ -4099,7 +5365,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="H77" t="s">
         <v>506</v>
       </c>
@@ -4107,7 +5373,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="H78" t="s">
         <v>341</v>
       </c>
@@ -4115,7 +5381,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="H79" t="s">
         <v>276</v>
       </c>
@@ -4123,7 +5389,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="80" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="H80" t="s">
         <v>282</v>
       </c>
@@ -4131,7 +5397,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="81" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="H81" t="s">
         <v>287</v>
       </c>
@@ -4139,7 +5405,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="H82" t="s">
         <v>424</v>
       </c>
@@ -4147,7 +5413,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="H83" t="s">
         <v>329</v>
       </c>
@@ -4155,7 +5421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="H84" t="s">
         <v>266</v>
       </c>
@@ -4163,7 +5429,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="85" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="H85" t="s">
         <v>277</v>
       </c>
@@ -4171,7 +5437,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="H86" t="s">
         <v>283</v>
       </c>
@@ -4179,7 +5445,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="H87" t="s">
         <v>272</v>
       </c>
@@ -4187,7 +5453,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="H88" t="s">
         <v>523</v>
       </c>
@@ -4195,7 +5461,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="89" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="H89" t="s">
         <v>267</v>
       </c>
@@ -4203,7 +5469,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="H90" t="s">
         <v>284</v>
       </c>
@@ -4211,7 +5477,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="91" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="H91" t="s">
         <v>268</v>
       </c>
@@ -4219,7 +5485,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="H92" t="s">
         <v>269</v>
       </c>
@@ -4227,7 +5493,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="H93" t="s">
         <v>301</v>
       </c>
@@ -4235,7 +5501,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="94" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="H94" t="s">
         <v>307</v>
       </c>
@@ -4243,7 +5509,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="95" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="H95" t="s">
         <v>291</v>
       </c>
@@ -4251,7 +5517,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="H96" t="s">
         <v>337</v>
       </c>
@@ -4259,7 +5525,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="H97" t="s">
         <v>273</v>
       </c>
@@ -4267,7 +5533,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="H98" t="s">
         <v>274</v>
       </c>
@@ -4275,223 +5541,223 @@
         <v>437</v>
       </c>
     </row>
-    <row r="99" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="Z99" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="100" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="Z100" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="Z101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="Z104" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="Z105" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="Z106" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="Z107" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="108" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="Z108" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="109" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="Z110" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="111" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="Z111" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="112" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="Z112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="Z113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="Z125" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="126" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="Z126" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="Z127" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="128" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="Z129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="Z133" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="135" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="18.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6640625" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="9.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="30.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="32.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="28.33203125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="18.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -4522,7 +5788,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>549</v>
       </c>
@@ -4543,7 +5809,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4560,7 +5826,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -4605,7 +5871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>463</v>
       </c>
@@ -4630,7 +5896,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>566</v>
@@ -4657,7 +5923,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4682,7 +5948,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="30" t="s">
         <v>562</v>
@@ -4709,7 +5975,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="31"/>
       <c r="C9" s="13" t="s">
@@ -4734,7 +6000,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="31" t="s">
         <v>561</v>
@@ -4761,7 +6027,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="30" t="s">
         <v>563</v>
@@ -4788,7 +6054,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -4811,7 +6077,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -4828,7 +6094,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -4845,7 +6111,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -4862,7 +6128,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -4879,7 +6145,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -4896,7 +6162,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4913,7 +6179,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4930,7 +6196,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4947,7 +6213,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4964,7 +6230,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4981,7 +6247,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4998,7 +6264,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -5015,7 +6281,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5032,7 +6298,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5049,7 +6315,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5066,7 +6332,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -5083,7 +6349,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5100,7 +6366,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5117,7 +6383,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5134,7 +6400,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5151,7 +6417,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5168,7 +6434,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5185,7 +6451,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5202,7 +6468,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5219,7 +6485,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5236,7 +6502,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5253,7 +6519,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5270,7 +6536,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5287,7 +6553,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5304,7 +6570,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5321,7 +6587,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5338,7 +6604,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5355,7 +6621,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5372,7 +6638,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5389,7 +6655,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5406,7 +6672,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5423,7 +6689,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5440,7 +6706,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5457,7 +6723,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5474,7 +6740,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5491,7 +6757,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5508,7 +6774,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5525,7 +6791,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5542,7 +6808,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5559,7 +6825,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5576,7 +6842,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5593,7 +6859,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5610,7 +6876,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5627,7 +6893,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5644,7 +6910,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5661,7 +6927,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5678,7 +6944,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5695,7 +6961,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5712,7 +6978,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5729,7 +6995,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5746,7 +7012,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5763,7 +7029,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5780,7 +7046,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5797,7 +7063,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5814,7 +7080,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5831,7 +7097,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5848,7 +7114,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5865,7 +7131,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5882,7 +7148,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5899,7 +7165,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5916,7 +7182,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5933,7 +7199,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5950,7 +7216,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5967,7 +7233,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5984,7 +7250,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -6001,7 +7267,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -6018,7 +7284,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -6035,7 +7301,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6052,7 +7318,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6069,7 +7335,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6086,7 +7352,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6103,7 +7369,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6120,7 +7386,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6137,7 +7403,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6154,7 +7420,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6171,7 +7437,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6188,7 +7454,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6205,7 +7471,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6222,7 +7488,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6239,7 +7505,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6256,7 +7522,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6273,7 +7539,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6290,7 +7556,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6307,7 +7573,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6324,7 +7590,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -6341,7 +7607,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -6358,7 +7624,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -6375,7 +7641,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -6392,7 +7658,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -6409,7 +7675,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6426,7 +7692,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6443,7 +7709,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6460,7 +7726,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6477,7 +7743,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6494,7 +7760,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6511,7 +7777,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6528,7 +7794,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6545,7 +7811,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6562,7 +7828,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6579,7 +7845,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6596,7 +7862,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6613,7 +7879,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6630,7 +7896,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6647,7 +7913,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6664,7 +7930,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6681,7 +7947,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6698,7 +7964,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6715,7 +7981,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6732,7 +7998,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6749,7 +8015,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6766,7 +8032,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6783,7 +8049,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6800,7 +8066,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6817,7 +8083,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6834,7 +8100,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6851,7 +8117,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6868,7 +8134,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6885,7 +8151,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6902,7 +8168,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6919,7 +8185,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6936,7 +8202,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6953,7 +8219,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6970,7 +8236,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6987,7 +8253,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -7004,7 +8270,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -7021,7 +8287,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -7038,7 +8304,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -7055,7 +8321,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -7072,7 +8338,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -7089,7 +8355,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -7106,7 +8372,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -7123,7 +8389,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -7140,7 +8406,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -7157,7 +8423,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -7174,7 +8440,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -7191,7 +8457,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -7208,7 +8474,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -7225,7 +8491,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -7242,7 +8508,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -7259,7 +8525,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -7276,7 +8542,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -7293,7 +8559,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -7310,7 +8576,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -7327,7 +8593,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -7344,7 +8610,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -7361,7 +8627,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -7378,7 +8644,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -7395,7 +8661,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -7412,7 +8678,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -7429,7 +8695,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7446,7 +8712,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7463,7 +8729,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7480,7 +8746,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7497,7 +8763,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7514,7 +8780,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7531,7 +8797,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7548,7 +8814,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7565,7 +8831,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7582,7 +8848,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7599,7 +8865,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7616,7 +8882,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7633,7 +8899,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7650,7 +8916,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7667,7 +8933,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7684,7 +8950,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7701,7 +8967,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7718,7 +8984,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7735,7 +9001,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7752,7 +9018,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7769,7 +9035,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7786,7 +9052,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7803,7 +9069,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7820,7 +9086,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7837,7 +9103,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7854,7 +9120,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7871,7 +9137,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7888,7 +9154,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7905,7 +9171,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7922,7 +9188,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7939,7 +9205,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7956,7 +9222,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7973,7 +9239,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7990,7 +9256,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -8007,7 +9273,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -8024,7 +9290,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -8041,7 +9307,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -8058,7 +9324,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -8075,7 +9341,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -8092,7 +9358,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -8109,7 +9375,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -8126,7 +9392,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -8143,7 +9409,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -8160,7 +9426,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -8177,7 +9443,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -8194,7 +9460,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -8211,7 +9477,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -8228,7 +9494,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -8245,7 +9511,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -8262,7 +9528,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -8279,7 +9545,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -8296,7 +9562,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -8313,7 +9579,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -8330,7 +9596,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -8347,7 +9613,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -8364,7 +9630,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -8381,7 +9647,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -8398,7 +9664,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -8415,7 +9681,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -8432,7 +9698,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8449,7 +9715,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8466,7 +9732,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8483,7 +9749,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8500,7 +9766,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8517,7 +9783,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8534,7 +9800,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8551,7 +9817,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8568,7 +9834,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8585,7 +9851,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8602,7 +9868,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8619,7 +9885,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8636,7 +9902,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8653,7 +9919,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8670,7 +9936,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8687,7 +9953,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8704,7 +9970,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8721,7 +9987,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8738,7 +10004,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8755,7 +10021,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8772,7 +10038,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8789,7 +10055,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8806,7 +10072,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8823,7 +10089,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8840,7 +10106,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8857,7 +10123,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8874,7 +10140,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8891,7 +10157,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8908,7 +10174,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8925,7 +10191,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8942,7 +10208,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8959,7 +10225,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8976,7 +10242,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8993,7 +10259,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -9010,7 +10276,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -9027,7 +10293,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -9044,7 +10310,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -9061,7 +10327,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -9078,7 +10344,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -9095,7 +10361,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -9112,7 +10378,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -9129,7 +10395,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -9146,7 +10412,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -9163,7 +10429,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -9180,7 +10446,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -9197,7 +10463,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -9214,7 +10480,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -9231,7 +10497,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -9248,7 +10514,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -9265,7 +10531,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -9282,7 +10548,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -9299,7 +10565,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -9316,7 +10582,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -9333,7 +10599,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -9350,7 +10616,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -9367,7 +10633,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -9384,7 +10650,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -9401,7 +10667,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -9418,7 +10684,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9435,7 +10701,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9452,7 +10718,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9469,7 +10735,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9486,7 +10752,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9503,7 +10769,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9520,7 +10786,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9537,7 +10803,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9554,7 +10820,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9571,7 +10837,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9588,7 +10854,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9605,7 +10871,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9622,7 +10888,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9639,7 +10905,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9656,7 +10922,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9673,7 +10939,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9690,7 +10956,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9708,7 +10974,7 @@
       <c r="O300" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -9716,66 +10982,66 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N100 N301:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N101:N300">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C300" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C300" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D300" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D300" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4352B6AC-3494-CE40-8C0C-6E6DAE0287A7}">
-  <dimension ref="A1:O300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4352B6AC-3494-CE40-8C0C-6E6DAE0287A7}">
+  <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:H12"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="41.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="30.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="27.0" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -9806,7 +11072,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>549</v>
       </c>
@@ -9827,7 +11093,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -9844,7 +11110,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -9889,7 +11155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>463</v>
       </c>
@@ -9916,7 +11182,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -9941,7 +11207,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -9966,7 +11232,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="30" t="s">
         <v>562</v>
@@ -9993,7 +11259,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="31"/>
       <c r="C9" s="13" t="s">
@@ -10018,7 +11284,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="31" t="s">
         <v>561</v>
@@ -10045,7 +11311,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="30" t="s">
         <v>563</v>
@@ -10072,7 +11338,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -10095,7 +11361,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -10112,7 +11378,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -10129,7 +11395,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -10146,7 +11412,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -10163,7 +11429,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -10180,7 +11446,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -10197,7 +11463,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -10214,7 +11480,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -10231,7 +11497,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -10248,7 +11514,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -10265,7 +11531,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -10282,7 +11548,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -10299,7 +11565,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -10316,7 +11582,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -10333,7 +11599,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -10350,7 +11616,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -10367,7 +11633,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -10384,7 +11650,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -10401,7 +11667,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -10418,7 +11684,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -10435,7 +11701,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -10452,7 +11718,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -10469,7 +11735,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -10486,7 +11752,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -10503,7 +11769,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -10520,7 +11786,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -10537,7 +11803,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -10554,7 +11820,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -10571,7 +11837,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -10588,7 +11854,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -10605,7 +11871,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -10622,7 +11888,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -10639,7 +11905,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -10656,7 +11922,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -10673,7 +11939,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -10690,7 +11956,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -10707,7 +11973,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -10724,7 +11990,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -10741,7 +12007,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -10758,7 +12024,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -10775,7 +12041,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -10792,7 +12058,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -10809,7 +12075,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -10826,7 +12092,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -10843,7 +12109,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -10860,7 +12126,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -10877,7 +12143,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -10894,7 +12160,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -10911,7 +12177,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -10928,7 +12194,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -10945,7 +12211,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -10962,7 +12228,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -10979,7 +12245,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -10996,7 +12262,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -11013,7 +12279,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -11030,7 +12296,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -11047,7 +12313,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -11064,7 +12330,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -11081,7 +12347,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -11098,7 +12364,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -11115,7 +12381,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -11132,7 +12398,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -11149,7 +12415,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -11166,7 +12432,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -11183,7 +12449,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -11200,7 +12466,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -11217,7 +12483,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -11234,7 +12500,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -11251,7 +12517,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -11268,7 +12534,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -11285,7 +12551,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -11302,7 +12568,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -11319,7 +12585,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -11336,7 +12602,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -11353,7 +12619,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -11370,7 +12636,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -11387,7 +12653,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -11404,7 +12670,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -11421,7 +12687,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -11438,7 +12704,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -11455,7 +12721,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -11472,7 +12738,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -11489,7 +12755,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -11506,7 +12772,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -11523,7 +12789,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -11540,7 +12806,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -11557,7 +12823,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -11574,7 +12840,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -11591,7 +12857,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -11608,7 +12874,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -11625,7 +12891,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -11642,7 +12908,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -11659,7 +12925,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -11676,7 +12942,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -11693,7 +12959,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -11710,7 +12976,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -11727,7 +12993,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -11744,7 +13010,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -11761,7 +13027,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -11778,7 +13044,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -11795,7 +13061,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -11812,7 +13078,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -11829,7 +13095,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -11846,7 +13112,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -11863,7 +13129,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -11880,7 +13146,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -11897,7 +13163,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -11914,7 +13180,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -11931,7 +13197,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -11948,7 +13214,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -11965,7 +13231,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -11982,7 +13248,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -11999,7 +13265,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -12016,7 +13282,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -12033,7 +13299,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -12050,7 +13316,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -12067,7 +13333,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -12084,7 +13350,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -12101,7 +13367,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -12118,7 +13384,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -12135,7 +13401,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -12152,7 +13418,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -12169,7 +13435,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -12186,7 +13452,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -12203,7 +13469,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -12220,7 +13486,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -12237,7 +13503,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -12254,7 +13520,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -12271,7 +13537,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -12288,7 +13554,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -12305,7 +13571,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -12322,7 +13588,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -12339,7 +13605,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -12356,7 +13622,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -12373,7 +13639,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -12390,7 +13656,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -12407,7 +13673,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -12424,7 +13690,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -12441,7 +13707,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -12458,7 +13724,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -12475,7 +13741,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -12492,7 +13758,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -12509,7 +13775,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -12526,7 +13792,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -12543,7 +13809,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -12560,7 +13826,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -12577,7 +13843,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -12594,7 +13860,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -12611,7 +13877,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -12628,7 +13894,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -12645,7 +13911,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -12662,7 +13928,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -12679,7 +13945,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -12696,7 +13962,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -12713,7 +13979,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -12730,7 +13996,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -12747,7 +14013,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -12764,7 +14030,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -12781,7 +14047,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -12798,7 +14064,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -12815,7 +14081,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -12832,7 +14098,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -12849,7 +14115,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -12866,7 +14132,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -12883,7 +14149,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -12900,7 +14166,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -12917,7 +14183,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -12934,7 +14200,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -12951,7 +14217,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -12968,7 +14234,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -12985,7 +14251,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -13002,7 +14268,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -13019,7 +14285,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -13036,7 +14302,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -13053,7 +14319,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -13070,7 +14336,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -13087,7 +14353,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -13104,7 +14370,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -13121,7 +14387,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -13138,7 +14404,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -13155,7 +14421,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -13172,7 +14438,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -13189,7 +14455,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -13206,7 +14472,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -13223,7 +14489,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -13240,7 +14506,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -13257,7 +14523,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -13274,7 +14540,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -13291,7 +14557,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -13308,7 +14574,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -13325,7 +14591,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -13342,7 +14608,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -13359,7 +14625,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -13376,7 +14642,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -13393,7 +14659,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -13410,7 +14676,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -13427,7 +14693,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -13444,7 +14710,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -13461,7 +14727,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -13478,7 +14744,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -13495,7 +14761,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -13512,7 +14778,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -13529,7 +14795,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -13546,7 +14812,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -13563,7 +14829,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -13580,7 +14846,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -13597,7 +14863,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -13614,7 +14880,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -13631,7 +14897,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -13648,7 +14914,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -13665,7 +14931,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -13682,7 +14948,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -13699,7 +14965,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -13716,7 +14982,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -13733,7 +14999,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -13750,7 +15016,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -13767,7 +15033,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -13784,7 +15050,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -13801,7 +15067,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -13818,7 +15084,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -13835,7 +15101,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -13852,7 +15118,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -13869,7 +15135,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -13886,7 +15152,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -13903,7 +15169,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -13920,7 +15186,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -13937,7 +15203,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -13954,7 +15220,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -13971,7 +15237,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -13988,7 +15254,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -14005,7 +15271,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -14022,7 +15288,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -14039,7 +15305,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -14056,7 +15322,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -14073,7 +15339,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -14090,7 +15356,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -14107,7 +15373,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -14124,7 +15390,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -14141,7 +15407,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -14158,7 +15424,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -14175,7 +15441,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -14192,7 +15458,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -14209,7 +15475,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -14226,7 +15492,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -14243,7 +15509,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -14260,7 +15526,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -14277,7 +15543,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -14294,7 +15560,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -14311,7 +15577,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -14328,7 +15594,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -14345,7 +15611,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -14362,7 +15628,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -14379,7 +15645,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -14396,7 +15662,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -14413,7 +15679,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -14430,7 +15696,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -14447,7 +15713,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -14464,7 +15730,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -14481,7 +15747,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -14498,7 +15764,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -14515,7 +15781,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -14532,7 +15798,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -14549,7 +15815,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -14566,7 +15832,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -14583,7 +15849,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -14600,7 +15866,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -14617,7 +15883,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -14634,7 +15900,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -14651,7 +15917,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -14668,7 +15934,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -14685,7 +15951,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -14702,7 +15968,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -14719,7 +15985,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -14736,7 +16002,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -14753,7 +16019,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -14770,7 +16036,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -14787,7 +16053,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -14804,7 +16070,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -14821,7 +16087,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -14838,7 +16104,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -14855,7 +16121,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -14872,7 +16138,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -14889,7 +16155,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -14906,7 +16172,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -14923,7 +16189,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -14940,7 +16206,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -14957,7 +16223,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -14974,7 +16240,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -14992,7 +16258,7 @@
       <c r="O300" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -15000,35 +16266,35 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N100 N301:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N101:N300">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D300" xr:uid="{D7643898-906D-C544-BDC3-C3B5614BCA68}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D300" type="list" xr:uid="{D7643898-906D-C544-BDC3-C3B5614BCA68}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C300" xr:uid="{F55D53A7-37DE-E348-9095-6799F3400F59}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C300" type="list" xr:uid="{F55D53A7-37DE-E348-9095-6799F3400F59}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -22,15 +22,15 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -49,7 +49,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="575">
   <si>
     <t>description</t>
   </si>
@@ -1787,6 +1787,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1809,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2080,8 +2095,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="59">
+  <fills count="86">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2412,8 +2528,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -3103,6 +3372,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3110,7 +3705,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3299,52 +3894,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="34" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="37" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="40" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="43" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="49" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="49" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="40" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="52" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="52" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="52" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="52" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="61" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="64" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="67" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="70" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="76" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="67" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3759,7 +4402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4075,7 +4718,7 @@
         <v>347</v>
       </c>
       <c r="L4" t="s">
-        <v>235</v>
+        <v>571</v>
       </c>
       <c r="M4" t="s">
         <v>332</v>
@@ -4111,7 +4754,7 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
-        <v>350</v>
+        <v>572</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -4158,7 +4801,7 @@
         <v>348</v>
       </c>
       <c r="L5" t="s">
-        <v>457</v>
+        <v>235</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -4225,11 +4868,14 @@
       <c r="I6" t="s">
         <v>443</v>
       </c>
+      <c r="J6" t="s">
+        <v>570</v>
+      </c>
       <c r="K6" t="s">
         <v>345</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>457</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -4291,7 +4937,7 @@
         <v>530</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -4350,7 +4996,7 @@
         <v>325</v>
       </c>
       <c r="L8" t="s">
-        <v>481</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -4406,7 +5052,7 @@
         <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -4450,7 +5096,7 @@
         <v>447</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -4491,7 +5137,7 @@
         <v>319</v>
       </c>
       <c r="L11" t="s">
-        <v>482</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>467</v>
@@ -4529,7 +5175,7 @@
         <v>320</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>482</v>
       </c>
       <c r="N12" t="s">
         <v>532</v>
@@ -4567,7 +5213,7 @@
         <v>321</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="N13" t="s">
         <v>431</v>
@@ -4602,7 +5248,7 @@
         <v>322</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>468</v>
@@ -4634,7 +5280,7 @@
         <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -4666,7 +5312,7 @@
         <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="N16" t="s">
         <v>536</v>
@@ -4698,7 +5344,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -4718,13 +5364,13 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>568</v>
+        <v>410</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -4741,13 +5387,13 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>410</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -4761,13 +5407,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -4781,13 +5427,13 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>569</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -4801,13 +5447,13 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>533</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>466</v>
+        <v>569</v>
       </c>
       <c r="Z22" t="s">
         <v>490</v>
@@ -4821,13 +5467,13 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>533</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -4841,13 +5487,13 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>318</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>537</v>
@@ -4861,13 +5507,13 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>520</v>
+        <v>387</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -4881,13 +5527,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>444</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>520</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -4901,13 +5547,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -4921,13 +5567,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -4938,13 +5584,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>464</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>324</v>
@@ -4955,10 +5601,13 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -4969,7 +5618,7 @@
         <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -4980,7 +5629,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>411</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -4991,7 +5640,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -5002,7 +5651,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
@@ -5013,7 +5662,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -5024,7 +5673,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -5035,7 +5684,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -5046,7 +5695,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -5057,7 +5706,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -5067,9 +5716,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -5543,186 +6189,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>574</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>494</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>545</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>545</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>439</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>539</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>539</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="575">
   <si>
     <t>description</t>
   </si>
@@ -1809,7 +1809,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2196,8 +2196,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="86">
+  <fills count="113">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2681,8 +2782,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3698,6 +3952,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3705,7 +4285,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="104">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3942,52 +4522,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="61" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="61" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="64" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="64" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="67" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="67" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="70" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="70" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="76" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="76" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="67" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="67" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="79" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="79" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="88" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="91" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="94" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="97" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="103" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="94" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="106" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="106" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -49,7 +49,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1802,6 +1802,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1812,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="108" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2297,8 +2300,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="113">
+  <fills count="167">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2935,8 +3140,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -4278,6 +4789,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4285,7 +5448,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4570,52 +5733,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="88" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="88" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="91" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="91" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="94" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="94" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="97" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="97" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="103" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="103" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="94" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="94" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="106" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="106" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="106" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="106" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="115" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="118" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="121" fontId="79" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="124" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="82" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="130" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="121" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="133" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="133" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="142" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="145" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="148" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="151" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="157" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="148" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5030,7 +6289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6740,7 +7999,7 @@
         <v>267</v>
       </c>
       <c r="Z89" t="s">
-        <v>196</v>
+        <v>575</v>
       </c>
     </row>
     <row r="90">
@@ -6748,7 +8007,7 @@
         <v>284</v>
       </c>
       <c r="Z90" t="s">
-        <v>449</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
@@ -6756,7 +8015,7 @@
         <v>268</v>
       </c>
       <c r="Z91" t="s">
-        <v>197</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92">
@@ -6764,7 +8023,7 @@
         <v>269</v>
       </c>
       <c r="Z92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
@@ -6772,7 +8031,7 @@
         <v>301</v>
       </c>
       <c r="Z93" t="s">
-        <v>541</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94">
@@ -6780,7 +8039,7 @@
         <v>307</v>
       </c>
       <c r="Z94" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="95">
@@ -6788,7 +8047,7 @@
         <v>291</v>
       </c>
       <c r="Z95" t="s">
-        <v>211</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96">
@@ -6796,7 +8055,7 @@
         <v>337</v>
       </c>
       <c r="Z96" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97">
@@ -6804,7 +8063,7 @@
         <v>273</v>
       </c>
       <c r="Z97" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
@@ -6812,201 +8071,206 @@
         <v>274</v>
       </c>
       <c r="Z98" t="s">
-        <v>437</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>573</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>438</v>
+        <v>574</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>200</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>494</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>545</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>145</v>
+        <v>518</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>519</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>378</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>146</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>439</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>159</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>539</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>160</v>
+        <v>539</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4629" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1812,7 +1812,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="108" x14ac:knownFonts="1">
+  <fonts count="124" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2502,8 +2502,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="167">
+  <fills count="194">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3446,8 +3547,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="195">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5441,6 +5695,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5448,7 +6028,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5829,52 +6409,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="142" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="142" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="145" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="145" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="148" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="148" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="151" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="151" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="98" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="157" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="157" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="148" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="148" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="160" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="160" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="169" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="172" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="175" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="178" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="184" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="175" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="187" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="187" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -27,7 +27,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -40,7 +40,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -49,9 +49,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4629" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5205" uniqueCount="586">
   <si>
     <t>description</t>
   </si>
@@ -1805,6 +1805,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1842,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="124" x14ac:knownFonts="1">
+  <fonts count="140" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2603,8 +2633,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="194">
+  <fills count="221">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3700,8 +3831,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -6021,6 +6305,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6028,7 +6638,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="168">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6457,52 +7067,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="169" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="169" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="172" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="172" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="175" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="175" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="178" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="178" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="114" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="184" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="184" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="175" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="175" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="187" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="187" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="187" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="187" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="196" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="199" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="202" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="205" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="211" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="202" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="214" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="214" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6917,7 +7575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7349,7 +8007,7 @@
         <v>170</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>584</v>
       </c>
       <c r="AC5" t="s">
         <v>181</v>
@@ -7420,7 +8078,7 @@
         <v>440</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC6" t="s">
         <v>182</v>
@@ -7482,7 +8140,7 @@
         <v>441</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
         <v>183</v>
@@ -7538,7 +8196,7 @@
         <v>171</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC8" t="s">
         <v>184</v>
@@ -7590,6 +8248,9 @@
       <c r="Z9" t="s">
         <v>205</v>
       </c>
+      <c r="AB9" t="s">
+        <v>178</v>
+      </c>
       <c r="AC9" t="s">
         <v>185</v>
       </c>
@@ -7608,7 +8269,7 @@
         <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>447</v>
+        <v>576</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -7630,6 +8291,9 @@
       </c>
       <c r="Z10" t="s">
         <v>253</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>585</v>
       </c>
       <c r="AC10" t="s">
         <v>186</v>
@@ -7649,7 +8313,7 @@
         <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -7687,7 +8351,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L12" t="s">
         <v>482</v>
@@ -7725,7 +8389,7 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L13" t="s">
         <v>385</v>
@@ -7737,7 +8401,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>251</v>
+        <v>577</v>
       </c>
       <c r="Z13" t="s">
         <v>323</v>
@@ -7760,7 +8424,7 @@
         <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -7772,7 +8436,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Z14" t="s">
         <v>100</v>
@@ -7794,6 +8458,9 @@
       <c r="H15" t="s">
         <v>260</v>
       </c>
+      <c r="I15" t="s">
+        <v>322</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -7804,10 +8471,10 @@
         <v>487</v>
       </c>
       <c r="S15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z15" t="s">
-        <v>101</v>
+        <v>578</v>
       </c>
       <c r="AC15" t="s">
         <v>190</v>
@@ -7836,10 +8503,10 @@
         <v>488</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AC16" t="s">
         <v>191</v>
@@ -7864,8 +8531,11 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
+      <c r="S17" t="s">
+        <v>249</v>
+      </c>
       <c r="Z17" t="s">
-        <v>489</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s">
         <v>462</v>
@@ -7891,7 +8561,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>102</v>
+        <v>489</v>
       </c>
       <c r="AE18" t="s">
         <v>471</v>
@@ -7911,7 +8581,7 @@
         <v>458</v>
       </c>
       <c r="Z19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE19" t="s">
         <v>500</v>
@@ -7931,7 +8601,7 @@
         <v>81</v>
       </c>
       <c r="Z20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE20" t="s">
         <v>501</v>
@@ -7951,7 +8621,7 @@
         <v>82</v>
       </c>
       <c r="Z21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE21" t="s">
         <v>502</v>
@@ -7971,7 +8641,7 @@
         <v>569</v>
       </c>
       <c r="Z22" t="s">
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="AE22" t="s">
         <v>232</v>
@@ -7991,7 +8661,7 @@
         <v>466</v>
       </c>
       <c r="Z23" t="s">
-        <v>106</v>
+        <v>490</v>
       </c>
       <c r="AE23" t="s">
         <v>527</v>
@@ -8011,7 +8681,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>537</v>
+        <v>106</v>
       </c>
       <c r="AE24" t="s">
         <v>528</v>
@@ -8031,7 +8701,7 @@
         <v>387</v>
       </c>
       <c r="Z25" t="s">
-        <v>107</v>
+        <v>537</v>
       </c>
       <c r="AE25" t="s">
         <v>529</v>
@@ -8051,7 +8721,7 @@
         <v>520</v>
       </c>
       <c r="Z26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE26" t="s">
         <v>233</v>
@@ -8071,7 +8741,7 @@
         <v>83</v>
       </c>
       <c r="Z27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE27" t="s">
         <v>234</v>
@@ -8091,7 +8761,7 @@
         <v>429</v>
       </c>
       <c r="Z28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -8108,7 +8778,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>324</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -8125,7 +8795,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>111</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31">
@@ -8139,7 +8809,7 @@
         <v>213</v>
       </c>
       <c r="Z31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -8150,7 +8820,7 @@
         <v>271</v>
       </c>
       <c r="Z32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -8161,7 +8831,7 @@
         <v>281</v>
       </c>
       <c r="Z33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -8172,7 +8842,7 @@
         <v>505</v>
       </c>
       <c r="Z34" t="s">
-        <v>538</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -8183,7 +8853,7 @@
         <v>256</v>
       </c>
       <c r="Z35" t="s">
-        <v>115</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36">
@@ -8194,7 +8864,7 @@
         <v>327</v>
       </c>
       <c r="Z36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -8205,7 +8875,7 @@
         <v>303</v>
       </c>
       <c r="Z37" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -8216,7 +8886,7 @@
         <v>257</v>
       </c>
       <c r="Z38" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
@@ -8227,7 +8897,7 @@
         <v>304</v>
       </c>
       <c r="Z39" t="s">
-        <v>335</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -8235,7 +8905,7 @@
         <v>263</v>
       </c>
       <c r="Z40" t="s">
-        <v>433</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41">
@@ -8243,7 +8913,7 @@
         <v>76</v>
       </c>
       <c r="Z41" t="s">
-        <v>548</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42">
@@ -8251,7 +8921,7 @@
         <v>208</v>
       </c>
       <c r="Z42" t="s">
-        <v>388</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43">
@@ -8259,7 +8929,7 @@
         <v>534</v>
       </c>
       <c r="Z43" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44">
@@ -8267,7 +8937,7 @@
         <v>285</v>
       </c>
       <c r="Z44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -8275,7 +8945,7 @@
         <v>296</v>
       </c>
       <c r="Z45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -8283,7 +8953,7 @@
         <v>297</v>
       </c>
       <c r="Z46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -8291,7 +8961,7 @@
         <v>340</v>
       </c>
       <c r="Z47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -8299,7 +8969,7 @@
         <v>339</v>
       </c>
       <c r="Z48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
@@ -8307,7 +8977,7 @@
         <v>207</v>
       </c>
       <c r="Z49" t="s">
-        <v>434</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -8315,7 +8985,7 @@
         <v>317</v>
       </c>
       <c r="Z50" t="s">
-        <v>209</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51">
@@ -8323,7 +8993,7 @@
         <v>336</v>
       </c>
       <c r="Z51" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
@@ -8331,7 +9001,7 @@
         <v>363</v>
       </c>
       <c r="Z52" t="s">
-        <v>531</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -8339,7 +9009,7 @@
         <v>298</v>
       </c>
       <c r="Z53" t="s">
-        <v>124</v>
+        <v>531</v>
       </c>
     </row>
     <row r="54">
@@ -8347,7 +9017,7 @@
         <v>351</v>
       </c>
       <c r="Z54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -8355,7 +9025,7 @@
         <v>328</v>
       </c>
       <c r="Z55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -8363,7 +9033,7 @@
         <v>264</v>
       </c>
       <c r="Z56" t="s">
-        <v>491</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -8371,7 +9041,7 @@
         <v>288</v>
       </c>
       <c r="Z57" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58">
@@ -8379,7 +9049,7 @@
         <v>289</v>
       </c>
       <c r="Z58" t="s">
-        <v>127</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59">
@@ -8387,7 +9057,7 @@
         <v>535</v>
       </c>
       <c r="Z59" t="s">
-        <v>343</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
@@ -8395,7 +9065,7 @@
         <v>290</v>
       </c>
       <c r="Z60" t="s">
-        <v>460</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61">
@@ -8403,7 +9073,7 @@
         <v>299</v>
       </c>
       <c r="Z61" t="s">
-        <v>128</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62">
@@ -8411,7 +9081,7 @@
         <v>308</v>
       </c>
       <c r="Z62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -8419,7 +9089,7 @@
         <v>334</v>
       </c>
       <c r="Z63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -8427,7 +9097,7 @@
         <v>305</v>
       </c>
       <c r="Z64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -8435,7 +9105,7 @@
         <v>306</v>
       </c>
       <c r="Z65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -8443,7 +9113,7 @@
         <v>364</v>
       </c>
       <c r="Z66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -8451,7 +9121,7 @@
         <v>365</v>
       </c>
       <c r="Z67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -8459,7 +9129,7 @@
         <v>342</v>
       </c>
       <c r="Z68" t="s">
-        <v>435</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -8467,7 +9137,7 @@
         <v>309</v>
       </c>
       <c r="Z69" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70">
@@ -8475,7 +9145,7 @@
         <v>265</v>
       </c>
       <c r="Z70" t="s">
-        <v>210</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71">
@@ -8483,7 +9153,7 @@
         <v>521</v>
       </c>
       <c r="Z71" t="s">
-        <v>384</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
@@ -8491,7 +9161,7 @@
         <v>310</v>
       </c>
       <c r="Z72" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73">
@@ -8499,7 +9169,7 @@
         <v>405</v>
       </c>
       <c r="Z73" t="s">
-        <v>135</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74">
@@ -8507,7 +9177,7 @@
         <v>300</v>
       </c>
       <c r="Z74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -8515,7 +9185,7 @@
         <v>406</v>
       </c>
       <c r="Z75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -8523,7 +9193,7 @@
         <v>258</v>
       </c>
       <c r="Z76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -8531,7 +9201,7 @@
         <v>506</v>
       </c>
       <c r="Z77" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -8539,7 +9209,7 @@
         <v>341</v>
       </c>
       <c r="Z78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79">
@@ -8547,7 +9217,7 @@
         <v>276</v>
       </c>
       <c r="Z79" t="s">
-        <v>448</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -8555,7 +9225,7 @@
         <v>282</v>
       </c>
       <c r="Z80" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81">
@@ -8563,7 +9233,7 @@
         <v>287</v>
       </c>
       <c r="Z81" t="s">
-        <v>139</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82">
@@ -8571,7 +9241,7 @@
         <v>424</v>
       </c>
       <c r="Z82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
@@ -8579,7 +9249,7 @@
         <v>329</v>
       </c>
       <c r="Z83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -8587,7 +9257,7 @@
         <v>266</v>
       </c>
       <c r="Z84" t="s">
-        <v>492</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
@@ -8595,7 +9265,7 @@
         <v>277</v>
       </c>
       <c r="Z85" t="s">
-        <v>142</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86">
@@ -8603,7 +9273,7 @@
         <v>283</v>
       </c>
       <c r="Z86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
@@ -8611,7 +9281,7 @@
         <v>272</v>
       </c>
       <c r="Z87" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
@@ -8619,7 +9289,7 @@
         <v>523</v>
       </c>
       <c r="Z88" t="s">
-        <v>493</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89">
@@ -8627,7 +9297,7 @@
         <v>267</v>
       </c>
       <c r="Z89" t="s">
-        <v>575</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90">
@@ -8635,7 +9305,7 @@
         <v>284</v>
       </c>
       <c r="Z90" t="s">
-        <v>196</v>
+        <v>575</v>
       </c>
     </row>
     <row r="91">
@@ -8643,7 +9313,7 @@
         <v>268</v>
       </c>
       <c r="Z91" t="s">
-        <v>449</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92">
@@ -8651,7 +9321,7 @@
         <v>269</v>
       </c>
       <c r="Z92" t="s">
-        <v>197</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93">
@@ -8659,7 +9329,7 @@
         <v>301</v>
       </c>
       <c r="Z93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
@@ -8667,7 +9337,7 @@
         <v>307</v>
       </c>
       <c r="Z94" t="s">
-        <v>541</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
@@ -8675,7 +9345,7 @@
         <v>291</v>
       </c>
       <c r="Z95" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="96">
@@ -8683,7 +9353,7 @@
         <v>337</v>
       </c>
       <c r="Z96" t="s">
-        <v>211</v>
+        <v>542</v>
       </c>
     </row>
     <row r="97">
@@ -8691,7 +9361,7 @@
         <v>273</v>
       </c>
       <c r="Z97" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98">
@@ -8699,206 +9369,236 @@
         <v>274</v>
       </c>
       <c r="Z98" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>437</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>573</v>
+        <v>437</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>438</v>
+        <v>574</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>200</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>494</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>545</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>145</v>
+        <v>545</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>146</v>
+        <v>519</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>150</v>
+        <v>580</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>153</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>439</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>159</v>
+        <v>582</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>539</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>163</v>
+        <v>539</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -27,7 +27,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5205" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5782" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1835,6 +1835,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1848,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="140" x14ac:knownFonts="1">
+  <fonts count="156" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2734,8 +2740,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="221">
+  <fills count="248">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3984,8 +4091,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="259">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -6631,6 +6891,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6638,7 +7224,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="184">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7115,52 +7701,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="196" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="196" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="199" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="199" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="202" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="202" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="205" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="205" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="211" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="211" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="202" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="202" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="214" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="214" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="214" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="214" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="223" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="226" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="229" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="232" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="238" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="229" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="241" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="241" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8269,7 +8903,7 @@
         <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -8313,7 +8947,7 @@
         <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>447</v>
+        <v>587</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -8351,7 +8985,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="L12" t="s">
         <v>482</v>
@@ -8389,7 +9023,7 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L13" t="s">
         <v>385</v>
@@ -8424,7 +9058,7 @@
         <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -8459,7 +9093,7 @@
         <v>260</v>
       </c>
       <c r="I15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -8492,6 +9126,9 @@
       </c>
       <c r="H16" t="s">
         <v>261</v>
+      </c>
+      <c r="I16" t="s">
+        <v>322</v>
       </c>
       <c r="L16" t="s">
         <v>483</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -29,7 +29,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -47,14 +47,15 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5782" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6952" uniqueCount="597">
   <si>
     <t>description</t>
   </si>
@@ -1841,6 +1842,33 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1876,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="156" x14ac:knownFonts="1">
+  <fonts count="188" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2841,8 +2869,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="248">
+  <fills count="302">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4244,8 +4474,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="291">
+  <borders count="355">
     <border>
       <left/>
       <right/>
@@ -7217,6 +7753,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7224,7 +8412,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="216">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7749,52 +8937,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="223" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="223" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="226" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="226" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="229" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="229" fontId="143" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="232" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="232" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="235" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="238" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="238" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="229" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="229" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="241" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="241" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="241" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="241" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="244" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="247" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="250" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="253" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="256" fontId="159" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="259" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="262" fontId="162" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="265" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="256" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="268" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="268" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="271" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="274" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="277" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="280" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="283" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="286" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="289" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="292" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="283" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="295" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="295" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="298" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8209,7 +9493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8297,21 +9581,24 @@
         <v>392</v>
       </c>
       <c r="Z1" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>409</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8347,7 +9634,7 @@
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>456</v>
+        <v>595</v>
       </c>
       <c r="L2" t="s">
         <v>311</v>
@@ -8392,21 +9679,24 @@
         <v>402</v>
       </c>
       <c r="Z2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA2" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>167</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>179</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>427</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -8478,21 +9768,24 @@
         <v>403</v>
       </c>
       <c r="Z3" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA3" t="s">
         <v>95</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>168</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>359</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>180</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8561,21 +9854,24 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA4" t="s">
         <v>572</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>174</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>180</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>419</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8635,21 +9931,24 @@
         <v>354</v>
       </c>
       <c r="Z5" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA5" t="s">
         <v>547</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>584</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>181</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>420</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8679,7 +9978,7 @@
         <v>570</v>
       </c>
       <c r="K6" t="s">
-        <v>345</v>
+        <v>596</v>
       </c>
       <c r="L6" t="s">
         <v>457</v>
@@ -8706,21 +10005,24 @@
         <v>356</v>
       </c>
       <c r="Z6" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA6" t="s">
         <v>96</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>440</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>182</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>421</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8741,7 +10043,7 @@
         <v>442</v>
       </c>
       <c r="K7" t="s">
-        <v>530</v>
+        <v>345</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -8767,22 +10069,22 @@
       <c r="X7" t="s">
         <v>355</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>97</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>441</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>183</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>422</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -8802,6 +10104,9 @@
       <c r="I8" t="s">
         <v>325</v>
       </c>
+      <c r="K8" t="s">
+        <v>530</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -8823,22 +10128,22 @@
       <c r="X8" t="s">
         <v>357</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>98</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>171</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>184</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>423</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -8879,16 +10184,16 @@
       <c r="X9" t="s">
         <v>358</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8923,16 +10228,16 @@
       <c r="U10" t="s">
         <v>401</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>585</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8964,13 +10269,13 @@
       <c r="S11" t="s">
         <v>245</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9002,13 +10307,13 @@
       <c r="S12" t="s">
         <v>246</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -9037,13 +10342,13 @@
       <c r="S13" t="s">
         <v>577</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>323</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -9072,13 +10377,13 @@
       <c r="S14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>496</v>
       </c>
     </row>
@@ -9107,13 +10412,13 @@
       <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>578</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>497</v>
       </c>
     </row>
@@ -9142,13 +10447,13 @@
       <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>101</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>498</v>
       </c>
     </row>
@@ -9171,13 +10476,13 @@
       <c r="S17" t="s">
         <v>249</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>73</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>462</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>499</v>
       </c>
     </row>
@@ -9197,10 +10502,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>489</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -9217,10 +10522,10 @@
       <c r="L19" t="s">
         <v>458</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>102</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>500</v>
       </c>
     </row>
@@ -9237,10 +10542,10 @@
       <c r="L20" t="s">
         <v>81</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>103</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>501</v>
       </c>
     </row>
@@ -9257,10 +10562,10 @@
       <c r="L21" t="s">
         <v>82</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>104</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -9277,10 +10582,10 @@
       <c r="L22" t="s">
         <v>569</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>105</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -9297,10 +10602,10 @@
       <c r="L23" t="s">
         <v>466</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>490</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -9317,10 +10622,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>106</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>528</v>
       </c>
     </row>
@@ -9337,16 +10642,16 @@
       <c r="L25" t="s">
         <v>387</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>537</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>588</v>
       </c>
       <c r="F26" t="s">
         <v>444</v>
@@ -9357,16 +10662,16 @@
       <c r="L26" t="s">
         <v>520</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>107</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
         <v>222</v>
@@ -9377,16 +10682,16 @@
       <c r="L27" t="s">
         <v>83</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>108</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>223</v>
@@ -9397,13 +10702,13 @@
       <c r="L28" t="s">
         <v>429</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
         <v>464</v>
@@ -9414,13 +10719,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
         <v>465</v>
@@ -9431,13 +10736,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>409</v>
       </c>
       <c r="F31" t="s">
         <v>411</v>
@@ -9445,18 +10750,21 @@
       <c r="H31" t="s">
         <v>213</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>224</v>
+      </c>
       <c r="F32" t="s">
         <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9467,7 +10775,7 @@
       <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>113</v>
       </c>
     </row>
@@ -9478,7 +10786,7 @@
       <c r="H34" t="s">
         <v>505</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>114</v>
       </c>
     </row>
@@ -9489,7 +10797,7 @@
       <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>538</v>
       </c>
     </row>
@@ -9500,7 +10808,7 @@
       <c r="H36" t="s">
         <v>327</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>115</v>
       </c>
     </row>
@@ -9511,7 +10819,7 @@
       <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9522,7 +10830,7 @@
       <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -9533,7 +10841,7 @@
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9541,7 +10849,7 @@
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>335</v>
       </c>
     </row>
@@ -9549,7 +10857,7 @@
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>433</v>
       </c>
     </row>
@@ -9557,7 +10865,7 @@
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>548</v>
       </c>
     </row>
@@ -9565,7 +10873,7 @@
       <c r="H43" t="s">
         <v>534</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9573,7 +10881,7 @@
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9581,7 +10889,7 @@
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9589,7 +10897,7 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9597,7 +10905,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9605,7 +10913,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9613,7 +10921,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9621,7 +10929,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>434</v>
       </c>
     </row>
@@ -9629,7 +10937,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9637,7 +10945,7 @@
       <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>75</v>
       </c>
     </row>
@@ -9645,7 +10953,7 @@
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>531</v>
       </c>
     </row>
@@ -9653,7 +10961,7 @@
       <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9661,7 +10969,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9669,7 +10977,7 @@
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9677,7 +10985,7 @@
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9685,7 +10993,7 @@
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>459</v>
       </c>
     </row>
@@ -9693,7 +11001,7 @@
       <c r="H59" t="s">
         <v>535</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9701,7 +11009,7 @@
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>343</v>
       </c>
     </row>
@@ -9709,7 +11017,7 @@
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>460</v>
       </c>
     </row>
@@ -9717,7 +11025,7 @@
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9725,7 +11033,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9733,7 +11041,7 @@
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9741,7 +11049,7 @@
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9749,7 +11057,7 @@
       <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9757,7 +11065,7 @@
       <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9765,7 +11073,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9773,7 +11081,7 @@
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>435</v>
       </c>
     </row>
@@ -9781,7 +11089,7 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>469</v>
       </c>
     </row>
@@ -9789,7 +11097,7 @@
       <c r="H71" t="s">
         <v>521</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9797,7 +11105,7 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9805,7 +11113,7 @@
       <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>436</v>
       </c>
     </row>
@@ -9813,7 +11121,7 @@
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9821,7 +11129,7 @@
       <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9829,7 +11137,7 @@
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>137</v>
       </c>
     </row>
@@ -9837,7 +11145,7 @@
       <c r="H77" t="s">
         <v>506</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9845,7 +11153,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>193</v>
       </c>
     </row>
@@ -9853,7 +11161,7 @@
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>194</v>
       </c>
     </row>
@@ -9861,7 +11169,7 @@
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>448</v>
       </c>
     </row>
@@ -9869,7 +11177,7 @@
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>461</v>
       </c>
     </row>
@@ -9877,7 +11185,7 @@
       <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>139</v>
       </c>
     </row>
@@ -9885,7 +11193,7 @@
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>140</v>
       </c>
     </row>
@@ -9893,7 +11201,7 @@
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9901,7 +11209,7 @@
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>492</v>
       </c>
     </row>
@@ -9909,7 +11217,7 @@
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9917,7 +11225,7 @@
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9925,7 +11233,7 @@
       <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>195</v>
       </c>
     </row>
@@ -9933,7 +11241,7 @@
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>493</v>
       </c>
     </row>
@@ -9941,7 +11249,7 @@
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>575</v>
       </c>
     </row>
@@ -9949,7 +11257,7 @@
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9957,7 +11265,7 @@
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>449</v>
       </c>
     </row>
@@ -9965,7 +11273,7 @@
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -9973,7 +11281,7 @@
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9981,7 +11289,7 @@
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>541</v>
       </c>
     </row>
@@ -9989,7 +11297,7 @@
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>542</v>
       </c>
     </row>
@@ -9997,7 +11305,7 @@
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>211</v>
       </c>
     </row>
@@ -10005,237 +11313,237 @@
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -33,7 +33,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -41,7 +41,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -49,13 +49,14 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6952" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7539" uniqueCount="607">
   <si>
     <t>description</t>
   </si>
@@ -1869,6 +1870,36 @@
   </si>
   <si>
     <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1907,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="188" x14ac:knownFonts="1">
+  <fonts count="204" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3071,8 +3102,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="302">
+  <fills count="329">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4780,8 +4912,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="355">
+  <borders count="387">
     <border>
       <left/>
       <right/>
@@ -8405,6 +8690,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8412,7 +9023,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="232">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9033,52 +9644,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="274" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="277" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="277" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="280" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="280" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="283" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="283" fontId="175" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="286" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="286" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="289" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="289" fontId="178" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="292" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="292" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="283" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="283" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="295" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="295" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="295" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="295" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="298" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="298" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="301" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="304" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="307" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="310" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="313" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="316" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="319" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="310" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="322" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="322" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="328" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9493,7 +10152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9581,7 +10240,7 @@
         <v>392</v>
       </c>
       <c r="Z1" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="AA1" t="s">
         <v>52</v>
@@ -9661,7 +10320,7 @@
         <v>250</v>
       </c>
       <c r="T2" t="s">
-        <v>214</v>
+        <v>599</v>
       </c>
       <c r="U2" t="s">
         <v>393</v>
@@ -9679,7 +10338,7 @@
         <v>402</v>
       </c>
       <c r="Z2" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="AA2" t="s">
         <v>94</v>
@@ -9753,7 +10412,7 @@
         <v>237</v>
       </c>
       <c r="T3" t="s">
-        <v>215</v>
+        <v>600</v>
       </c>
       <c r="U3" t="s">
         <v>394</v>
@@ -9768,7 +10427,7 @@
         <v>403</v>
       </c>
       <c r="Z3" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="AA3" t="s">
         <v>95</v>
@@ -9839,7 +10498,7 @@
         <v>238</v>
       </c>
       <c r="T4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U4" t="s">
         <v>395</v>
@@ -9854,7 +10513,7 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="AA4" t="s">
         <v>572</v>
@@ -9919,7 +10578,7 @@
         <v>239</v>
       </c>
       <c r="T5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U5" t="s">
         <v>396</v>
@@ -9929,9 +10588,6 @@
       </c>
       <c r="X5" t="s">
         <v>354</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>593</v>
       </c>
       <c r="AA5" t="s">
         <v>547</v>
@@ -9996,16 +10652,13 @@
         <v>240</v>
       </c>
       <c r="T6" t="s">
-        <v>386</v>
+        <v>216</v>
       </c>
       <c r="U6" t="s">
         <v>397</v>
       </c>
       <c r="X6" t="s">
         <v>356</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>594</v>
       </c>
       <c r="AA6" t="s">
         <v>96</v>
@@ -10061,7 +10714,7 @@
         <v>241</v>
       </c>
       <c r="T7" t="s">
-        <v>413</v>
+        <v>217</v>
       </c>
       <c r="U7" t="s">
         <v>398</v>
@@ -10122,6 +10775,9 @@
       <c r="S8" t="s">
         <v>242</v>
       </c>
+      <c r="T8" t="s">
+        <v>386</v>
+      </c>
       <c r="U8" t="s">
         <v>399</v>
       </c>
@@ -10178,6 +10834,9 @@
       <c r="S9" t="s">
         <v>243</v>
       </c>
+      <c r="T9" t="s">
+        <v>413</v>
+      </c>
       <c r="U9" t="s">
         <v>400</v>
       </c>
@@ -10299,7 +10958,7 @@
         <v>532</v>
       </c>
       <c r="O12" t="s">
-        <v>517</v>
+        <v>598</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -10336,6 +10995,9 @@
       <c r="N13" t="s">
         <v>431</v>
       </c>
+      <c r="O13" t="s">
+        <v>517</v>
+      </c>
       <c r="R13" t="s">
         <v>92</v>
       </c>
@@ -10413,7 +11075,7 @@
         <v>247</v>
       </c>
       <c r="AA15" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="AD15" t="s">
         <v>190</v>
@@ -10448,7 +11110,7 @@
         <v>248</v>
       </c>
       <c r="AA16" t="s">
-        <v>101</v>
+        <v>578</v>
       </c>
       <c r="AD16" t="s">
         <v>191</v>
@@ -10477,7 +11139,7 @@
         <v>249</v>
       </c>
       <c r="AA17" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AD17" t="s">
         <v>462</v>
@@ -10503,7 +11165,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>489</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s">
         <v>471</v>
@@ -10523,7 +11185,7 @@
         <v>458</v>
       </c>
       <c r="AA19" t="s">
-        <v>102</v>
+        <v>489</v>
       </c>
       <c r="AF19" t="s">
         <v>500</v>
@@ -10543,7 +11205,7 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s">
         <v>501</v>
@@ -10563,7 +11225,7 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF21" t="s">
         <v>502</v>
@@ -10583,7 +11245,7 @@
         <v>569</v>
       </c>
       <c r="AA22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF22" t="s">
         <v>232</v>
@@ -10603,7 +11265,7 @@
         <v>466</v>
       </c>
       <c r="AA23" t="s">
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="AF23" t="s">
         <v>527</v>
@@ -10623,7 +11285,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>106</v>
+        <v>490</v>
       </c>
       <c r="AF24" t="s">
         <v>528</v>
@@ -10643,7 +11305,7 @@
         <v>387</v>
       </c>
       <c r="AA25" t="s">
-        <v>537</v>
+        <v>106</v>
       </c>
       <c r="AF25" t="s">
         <v>529</v>
@@ -10651,7 +11313,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="F26" t="s">
         <v>444</v>
@@ -10663,7 +11325,7 @@
         <v>520</v>
       </c>
       <c r="AA26" t="s">
-        <v>107</v>
+        <v>537</v>
       </c>
       <c r="AF26" t="s">
         <v>233</v>
@@ -10683,7 +11345,7 @@
         <v>83</v>
       </c>
       <c r="AA27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF27" t="s">
         <v>234</v>
@@ -10703,7 +11365,7 @@
         <v>429</v>
       </c>
       <c r="AA28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -10720,7 +11382,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -10737,7 +11399,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>324</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -10751,7 +11413,7 @@
         <v>213</v>
       </c>
       <c r="AA31" t="s">
-        <v>111</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32">
@@ -10765,7 +11427,7 @@
         <v>271</v>
       </c>
       <c r="AA32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -10776,7 +11438,7 @@
         <v>281</v>
       </c>
       <c r="AA33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -10787,7 +11449,7 @@
         <v>505</v>
       </c>
       <c r="AA34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -10798,7 +11460,7 @@
         <v>256</v>
       </c>
       <c r="AA35" t="s">
-        <v>538</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -10809,7 +11471,7 @@
         <v>327</v>
       </c>
       <c r="AA36" t="s">
-        <v>115</v>
+        <v>538</v>
       </c>
     </row>
     <row r="37">
@@ -10820,7 +11482,7 @@
         <v>303</v>
       </c>
       <c r="AA37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -10831,7 +11493,7 @@
         <v>257</v>
       </c>
       <c r="AA38" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -10842,7 +11504,7 @@
         <v>304</v>
       </c>
       <c r="AA39" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40">
@@ -10850,7 +11512,7 @@
         <v>263</v>
       </c>
       <c r="AA40" t="s">
-        <v>335</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -10858,7 +11520,7 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s">
-        <v>433</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42">
@@ -10866,7 +11528,7 @@
         <v>208</v>
       </c>
       <c r="AA42" t="s">
-        <v>548</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43">
@@ -10874,7 +11536,7 @@
         <v>534</v>
       </c>
       <c r="AA43" t="s">
-        <v>388</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44">
@@ -10882,7 +11544,7 @@
         <v>285</v>
       </c>
       <c r="AA44" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45">
@@ -10890,7 +11552,7 @@
         <v>296</v>
       </c>
       <c r="AA45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -10898,7 +11560,7 @@
         <v>297</v>
       </c>
       <c r="AA46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -10906,7 +11568,7 @@
         <v>340</v>
       </c>
       <c r="AA47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -10914,7 +11576,7 @@
         <v>339</v>
       </c>
       <c r="AA48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -10922,7 +11584,7 @@
         <v>207</v>
       </c>
       <c r="AA49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -10930,7 +11592,7 @@
         <v>317</v>
       </c>
       <c r="AA50" t="s">
-        <v>434</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
@@ -10938,7 +11600,7 @@
         <v>336</v>
       </c>
       <c r="AA51" t="s">
-        <v>209</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52">
@@ -10946,7 +11608,7 @@
         <v>363</v>
       </c>
       <c r="AA52" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53">
@@ -10954,7 +11616,7 @@
         <v>298</v>
       </c>
       <c r="AA53" t="s">
-        <v>531</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -10962,7 +11624,7 @@
         <v>351</v>
       </c>
       <c r="AA54" t="s">
-        <v>124</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55">
@@ -10970,7 +11632,7 @@
         <v>328</v>
       </c>
       <c r="AA55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -10978,7 +11640,7 @@
         <v>264</v>
       </c>
       <c r="AA56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -10986,7 +11648,7 @@
         <v>288</v>
       </c>
       <c r="AA57" t="s">
-        <v>491</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -10994,7 +11656,7 @@
         <v>289</v>
       </c>
       <c r="AA58" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59">
@@ -11002,7 +11664,7 @@
         <v>535</v>
       </c>
       <c r="AA59" t="s">
-        <v>127</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60">
@@ -11010,7 +11672,7 @@
         <v>290</v>
       </c>
       <c r="AA60" t="s">
-        <v>343</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
@@ -11018,7 +11680,7 @@
         <v>299</v>
       </c>
       <c r="AA61" t="s">
-        <v>460</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62">
@@ -11026,7 +11688,7 @@
         <v>308</v>
       </c>
       <c r="AA62" t="s">
-        <v>128</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63">
@@ -11034,7 +11696,7 @@
         <v>334</v>
       </c>
       <c r="AA63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
@@ -11042,7 +11704,7 @@
         <v>305</v>
       </c>
       <c r="AA64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -11050,7 +11712,7 @@
         <v>306</v>
       </c>
       <c r="AA65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
@@ -11058,7 +11720,7 @@
         <v>364</v>
       </c>
       <c r="AA66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
@@ -11066,7 +11728,7 @@
         <v>365</v>
       </c>
       <c r="AA67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -11074,7 +11736,7 @@
         <v>342</v>
       </c>
       <c r="AA68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
@@ -11082,7 +11744,7 @@
         <v>309</v>
       </c>
       <c r="AA69" t="s">
-        <v>435</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -11090,7 +11752,7 @@
         <v>265</v>
       </c>
       <c r="AA70" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71">
@@ -11098,7 +11760,7 @@
         <v>521</v>
       </c>
       <c r="AA71" t="s">
-        <v>210</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72">
@@ -11106,7 +11768,7 @@
         <v>310</v>
       </c>
       <c r="AA72" t="s">
-        <v>384</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73">
@@ -11114,7 +11776,7 @@
         <v>405</v>
       </c>
       <c r="AA73" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74">
@@ -11122,7 +11784,7 @@
         <v>300</v>
       </c>
       <c r="AA74" t="s">
-        <v>135</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75">
@@ -11130,7 +11792,7 @@
         <v>406</v>
       </c>
       <c r="AA75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -11138,7 +11800,7 @@
         <v>258</v>
       </c>
       <c r="AA76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -11146,7 +11808,7 @@
         <v>506</v>
       </c>
       <c r="AA77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
@@ -11154,7 +11816,7 @@
         <v>341</v>
       </c>
       <c r="AA78" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -11162,7 +11824,7 @@
         <v>276</v>
       </c>
       <c r="AA79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80">
@@ -11170,7 +11832,7 @@
         <v>282</v>
       </c>
       <c r="AA80" t="s">
-        <v>448</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
@@ -11178,7 +11840,7 @@
         <v>287</v>
       </c>
       <c r="AA81" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82">
@@ -11186,7 +11848,7 @@
         <v>424</v>
       </c>
       <c r="AA82" t="s">
-        <v>139</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83">
@@ -11194,7 +11856,7 @@
         <v>329</v>
       </c>
       <c r="AA83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -11202,7 +11864,7 @@
         <v>266</v>
       </c>
       <c r="AA84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -11210,7 +11872,7 @@
         <v>277</v>
       </c>
       <c r="AA85" t="s">
-        <v>492</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
@@ -11218,7 +11880,7 @@
         <v>283</v>
       </c>
       <c r="AA86" t="s">
-        <v>142</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87">
@@ -11226,7 +11888,7 @@
         <v>272</v>
       </c>
       <c r="AA87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
@@ -11234,7 +11896,7 @@
         <v>523</v>
       </c>
       <c r="AA88" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
@@ -11242,7 +11904,7 @@
         <v>267</v>
       </c>
       <c r="AA89" t="s">
-        <v>493</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90">
@@ -11250,7 +11912,7 @@
         <v>284</v>
       </c>
       <c r="AA90" t="s">
-        <v>575</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91">
@@ -11258,7 +11920,7 @@
         <v>268</v>
       </c>
       <c r="AA91" t="s">
-        <v>196</v>
+        <v>575</v>
       </c>
     </row>
     <row r="92">
@@ -11266,7 +11928,7 @@
         <v>269</v>
       </c>
       <c r="AA92" t="s">
-        <v>449</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
@@ -11274,7 +11936,7 @@
         <v>301</v>
       </c>
       <c r="AA93" t="s">
-        <v>197</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94">
@@ -11282,7 +11944,7 @@
         <v>307</v>
       </c>
       <c r="AA94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95">
@@ -11290,7 +11952,7 @@
         <v>291</v>
       </c>
       <c r="AA95" t="s">
-        <v>541</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
@@ -11298,7 +11960,7 @@
         <v>337</v>
       </c>
       <c r="AA96" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="97">
@@ -11306,7 +11968,7 @@
         <v>273</v>
       </c>
       <c r="AA97" t="s">
-        <v>211</v>
+        <v>542</v>
       </c>
     </row>
     <row r="98">
@@ -11314,236 +11976,241 @@
         <v>274</v>
       </c>
       <c r="AA98" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>437</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>573</v>
+        <v>437</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>438</v>
+        <v>574</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>200</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>579</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>204</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>494</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>545</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>145</v>
+        <v>518</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>519</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>378</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>146</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>580</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>148</v>
+        <v>580</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>581</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>150</v>
+        <v>581</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>582</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>156</v>
+        <v>582</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>439</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>159</v>
+        <v>606</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>539</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>160</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>583</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>164</v>
+        <v>583</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -22,7 +22,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -30,7 +30,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -40,22 +40,22 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7539" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8817" uniqueCount="657">
   <si>
     <t>description</t>
   </si>
@@ -1900,6 +1900,156 @@
   </si>
   <si>
     <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +2057,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="204" x14ac:knownFonts="1">
+  <fonts count="238" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3203,8 +3353,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="329">
+  <fills count="377">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5063,6 +5427,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -9023,7 +9659,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="266">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9692,52 +10328,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="301" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="304" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="304" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="307" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="307" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="310" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="310" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="313" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="313" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="316" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="316" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="319" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="319" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="310" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="310" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="322" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="322" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="322" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="322" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="325" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="328" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="328" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="331" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="334" fontId="206" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="337" fontId="207" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="340" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="343" fontId="210" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="346" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="349" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="337" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="340" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="352" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="340" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="349" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="358" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="361" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="364" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="361" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="364" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="376" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="364" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10152,7 +10890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG145"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10243,21 +10981,24 @@
         <v>597</v>
       </c>
       <c r="AA1" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>409</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -10341,21 +11082,24 @@
         <v>601</v>
       </c>
       <c r="AA2" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>172</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>427</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -10430,21 +11174,24 @@
         <v>602</v>
       </c>
       <c r="AA3" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>359</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -10516,21 +11263,24 @@
         <v>603</v>
       </c>
       <c r="AA4" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB4" t="s">
         <v>572</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>419</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -10590,21 +11340,24 @@
         <v>354</v>
       </c>
       <c r="AA5" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB5" t="s">
         <v>547</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>584</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>420</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -10661,21 +11414,24 @@
         <v>356</v>
       </c>
       <c r="AA6" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>440</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>421</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -10723,21 +11479,24 @@
         <v>355</v>
       </c>
       <c r="AA7" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>441</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>422</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -10785,21 +11544,24 @@
         <v>357</v>
       </c>
       <c r="AA8" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>423</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -10844,15 +11606,18 @@
         <v>358</v>
       </c>
       <c r="AA9" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10888,15 +11653,18 @@
         <v>401</v>
       </c>
       <c r="AA10" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>585</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -10926,15 +11694,18 @@
         <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>245</v>
+        <v>613</v>
       </c>
       <c r="AA11" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB11" t="s">
         <v>254</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10964,15 +11735,18 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA12" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -11002,15 +11776,18 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>577</v>
+        <v>246</v>
       </c>
       <c r="AA13" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -11037,15 +11814,18 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>251</v>
+        <v>577</v>
       </c>
       <c r="AA14" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>496</v>
       </c>
     </row>
@@ -11072,15 +11852,18 @@
         <v>487</v>
       </c>
       <c r="S15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA15" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB15" t="s">
         <v>604</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>497</v>
       </c>
     </row>
@@ -11107,15 +11890,18 @@
         <v>488</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA16" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB16" t="s">
         <v>578</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>498</v>
       </c>
     </row>
@@ -11136,15 +11922,18 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA17" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>462</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>499</v>
       </c>
     </row>
@@ -11164,10 +11953,16 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>249</v>
+      </c>
       <c r="AA18" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -11176,7 +11971,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>607</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -11185,9 +11980,12 @@
         <v>458</v>
       </c>
       <c r="AA19" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB19" t="s">
         <v>489</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>500</v>
       </c>
     </row>
@@ -11196,7 +11994,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>608</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -11205,9 +12003,12 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>501</v>
       </c>
     </row>
@@ -11216,7 +12017,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>609</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -11225,9 +12026,12 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -11236,7 +12040,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>533</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -11245,9 +12049,12 @@
         <v>569</v>
       </c>
       <c r="AA22" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -11256,7 +12063,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -11265,9 +12072,12 @@
         <v>466</v>
       </c>
       <c r="AA23" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -11276,7 +12086,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -11285,9 +12095,12 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB24" t="s">
         <v>490</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>528</v>
       </c>
     </row>
@@ -11296,7 +12109,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>610</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -11305,9 +12118,12 @@
         <v>387</v>
       </c>
       <c r="AA25" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>529</v>
       </c>
     </row>
@@ -11316,234 +12132,294 @@
         <v>597</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>520</v>
+        <v>612</v>
       </c>
       <c r="AA26" t="s">
+        <v>591</v>
+      </c>
+      <c r="AB26" t="s">
         <v>537</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>588</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>520</v>
       </c>
       <c r="AA27" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>464</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="AA29" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>222</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>409</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
       <c r="AA32" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>224</v>
+      </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>464</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
       </c>
       <c r="AA33" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>465</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
       </c>
       <c r="AA34" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
       </c>
       <c r="AA35" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB36" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
       </c>
       <c r="AA37" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
       </c>
       <c r="AA38" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
         <v>534</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>611</v>
+      </c>
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>388</v>
       </c>
     </row>
@@ -11551,7 +12427,7 @@
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -11559,7 +12435,7 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -11567,7 +12443,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>120</v>
       </c>
     </row>
@@ -11575,7 +12451,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>121</v>
       </c>
     </row>
@@ -11583,7 +12459,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11591,7 +12467,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -11599,7 +12475,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>605</v>
       </c>
     </row>
@@ -11607,7 +12483,7 @@
       <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>209</v>
       </c>
     </row>
@@ -11615,7 +12491,7 @@
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -11623,7 +12499,7 @@
       <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>531</v>
       </c>
     </row>
@@ -11631,7 +12507,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>124</v>
       </c>
     </row>
@@ -11639,7 +12515,7 @@
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>125</v>
       </c>
     </row>
@@ -11647,7 +12523,7 @@
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>126</v>
       </c>
     </row>
@@ -11655,7 +12531,7 @@
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11663,7 +12539,7 @@
       <c r="H59" t="s">
         <v>535</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>459</v>
       </c>
     </row>
@@ -11671,7 +12547,7 @@
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11679,7 +12555,7 @@
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>343</v>
       </c>
     </row>
@@ -11687,7 +12563,7 @@
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>460</v>
       </c>
     </row>
@@ -11695,7 +12571,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -11703,7 +12579,7 @@
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -11711,7 +12587,7 @@
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -11719,7 +12595,7 @@
       <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11727,7 +12603,7 @@
       <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11735,7 +12611,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11743,7 +12619,7 @@
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>134</v>
       </c>
     </row>
@@ -11751,7 +12627,7 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>435</v>
       </c>
     </row>
@@ -11759,7 +12635,7 @@
       <c r="H71" t="s">
         <v>521</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>469</v>
       </c>
     </row>
@@ -11767,7 +12643,7 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>210</v>
       </c>
     </row>
@@ -11775,7 +12651,7 @@
       <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>384</v>
       </c>
     </row>
@@ -11783,7 +12659,7 @@
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>436</v>
       </c>
     </row>
@@ -11791,7 +12667,7 @@
       <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>135</v>
       </c>
     </row>
@@ -11799,7 +12675,7 @@
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11807,7 +12683,7 @@
       <c r="H77" t="s">
         <v>506</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>137</v>
       </c>
     </row>
@@ -11815,7 +12691,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>138</v>
       </c>
     </row>
@@ -11823,395 +12699,425 @@
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="AA79" t="s">
-        <v>193</v>
+      <c r="AB79" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="AA80" t="s">
-        <v>194</v>
+      <c r="AB80" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="AA81" t="s">
-        <v>448</v>
+      <c r="AB81" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="AA82" t="s">
-        <v>461</v>
+      <c r="AB82" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AA83" t="s">
-        <v>139</v>
+      <c r="AB83" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="AA84" t="s">
-        <v>140</v>
+      <c r="AB84" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="AA85" t="s">
-        <v>141</v>
+      <c r="AB85" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="AA86" t="s">
-        <v>492</v>
+      <c r="AB86" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="AA87" t="s">
-        <v>142</v>
+      <c r="AB87" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="AA88" t="s">
-        <v>143</v>
+      <c r="AB88" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="AA89" t="s">
-        <v>195</v>
+      <c r="AB89" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="AA90" t="s">
-        <v>493</v>
+      <c r="AB90" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="AA91" t="s">
-        <v>575</v>
+      <c r="AB91" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="AA92" t="s">
-        <v>196</v>
+      <c r="AB92" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="AA93" t="s">
-        <v>449</v>
+      <c r="AB93" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="AA94" t="s">
-        <v>197</v>
+      <c r="AB94" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="AA95" t="s">
-        <v>198</v>
+      <c r="AB95" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AA96" t="s">
-        <v>541</v>
+      <c r="AB96" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="AA97" t="s">
-        <v>542</v>
+      <c r="AB97" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>545</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -22,13 +22,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -47,14 +47,14 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8817" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9419" uniqueCount="659">
   <si>
     <t>description</t>
   </si>
@@ -2050,6 +2050,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2057,7 +2063,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="238" x14ac:knownFonts="1">
+  <fonts count="255" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3567,8 +3573,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="377">
+  <fills count="401">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5427,6 +5540,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -9659,7 +9908,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="283">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10427,55 +10676,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="349" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="355" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="358" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="358" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="361" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="361" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="364" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="364" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="367" fontId="227" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="370" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="373" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="361" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="361" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="364" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="364" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="376" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="376" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="364" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="364" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="373" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="379" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="382" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="388" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="391" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="394" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="397" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="388" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="400" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="388" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="397" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10890,7 +11190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10981,24 +11281,21 @@
         <v>597</v>
       </c>
       <c r="AA1" t="s">
-        <v>588</v>
+        <v>52</v>
       </c>
       <c r="AB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE1" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="AF1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AG1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -11031,7 +11328,7 @@
         <v>445</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>658</v>
       </c>
       <c r="K2" t="s">
         <v>595</v>
@@ -11082,24 +11379,21 @@
         <v>601</v>
       </c>
       <c r="AA2" t="s">
-        <v>614</v>
+        <v>94</v>
       </c>
       <c r="AB2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AC2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AD2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AE2" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AF2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -11129,7 +11423,7 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
         <v>346</v>
@@ -11174,24 +11468,21 @@
         <v>602</v>
       </c>
       <c r="AA3" t="s">
-        <v>615</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AC3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AD3" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="AE3" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -11218,7 +11509,7 @@
         <v>446</v>
       </c>
       <c r="J4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K4" t="s">
         <v>347</v>
@@ -11263,24 +11554,21 @@
         <v>603</v>
       </c>
       <c r="AA4" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
       <c r="AB4" t="s">
-        <v>572</v>
+        <v>169</v>
       </c>
       <c r="AC4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AE4" t="s">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="AF4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -11307,7 +11595,7 @@
         <v>455</v>
       </c>
       <c r="J5" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K5" t="s">
         <v>348</v>
@@ -11340,24 +11628,21 @@
         <v>354</v>
       </c>
       <c r="AA5" t="s">
-        <v>617</v>
+        <v>547</v>
       </c>
       <c r="AB5" t="s">
-        <v>547</v>
+        <v>170</v>
       </c>
       <c r="AC5" t="s">
-        <v>170</v>
+        <v>584</v>
       </c>
       <c r="AD5" t="s">
-        <v>584</v>
+        <v>181</v>
       </c>
       <c r="AE5" t="s">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="AF5" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -11384,7 +11669,7 @@
         <v>443</v>
       </c>
       <c r="J6" t="s">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="K6" t="s">
         <v>596</v>
@@ -11414,24 +11699,21 @@
         <v>356</v>
       </c>
       <c r="AA6" t="s">
-        <v>618</v>
+        <v>96</v>
       </c>
       <c r="AB6" t="s">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="AC6" t="s">
-        <v>440</v>
+        <v>175</v>
       </c>
       <c r="AD6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AE6" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="AF6" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -11451,6 +11733,9 @@
       <c r="I7" t="s">
         <v>442</v>
       </c>
+      <c r="J7" t="s">
+        <v>570</v>
+      </c>
       <c r="K7" t="s">
         <v>345</v>
       </c>
@@ -11479,24 +11764,21 @@
         <v>355</v>
       </c>
       <c r="AA7" t="s">
-        <v>619</v>
+        <v>97</v>
       </c>
       <c r="AB7" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="AC7" t="s">
-        <v>441</v>
+        <v>176</v>
       </c>
       <c r="AD7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AE7" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="AF7" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -11544,24 +11826,21 @@
         <v>357</v>
       </c>
       <c r="AA8" t="s">
-        <v>620</v>
+        <v>98</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AC8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AD8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE8" t="s">
-        <v>184</v>
+        <v>423</v>
       </c>
       <c r="AF8" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -11606,18 +11885,15 @@
         <v>358</v>
       </c>
       <c r="AA9" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB9" t="s">
         <v>205</v>
       </c>
+      <c r="AC9" t="s">
+        <v>178</v>
+      </c>
       <c r="AD9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11653,18 +11929,15 @@
         <v>401</v>
       </c>
       <c r="AA10" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB10" t="s">
         <v>253</v>
       </c>
+      <c r="AC10" t="s">
+        <v>585</v>
+      </c>
       <c r="AD10" t="s">
-        <v>585</v>
-      </c>
-      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -11673,7 +11946,7 @@
         <v>344</v>
       </c>
       <c r="F11" t="s">
-        <v>546</v>
+        <v>657</v>
       </c>
       <c r="H11" t="s">
         <v>349</v>
@@ -11697,15 +11970,12 @@
         <v>613</v>
       </c>
       <c r="AA11" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB11" t="s">
         <v>254</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>255</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -11714,7 +11984,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>316</v>
+        <v>546</v>
       </c>
       <c r="H12" t="s">
         <v>270</v>
@@ -11738,15 +12008,12 @@
         <v>245</v>
       </c>
       <c r="AA12" t="s">
-        <v>624</v>
-      </c>
-      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -11755,7 +12022,7 @@
         <v>330</v>
       </c>
       <c r="F13" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
         <v>259</v>
@@ -11779,15 +12046,12 @@
         <v>246</v>
       </c>
       <c r="AA13" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -11796,7 +12060,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="H14" t="s">
         <v>312</v>
@@ -11817,15 +12081,12 @@
         <v>577</v>
       </c>
       <c r="AA14" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>496</v>
       </c>
     </row>
@@ -11834,7 +12095,7 @@
         <v>503</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>260</v>
@@ -11855,15 +12116,12 @@
         <v>251</v>
       </c>
       <c r="AA15" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB15" t="s">
         <v>604</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>497</v>
       </c>
     </row>
@@ -11872,7 +12130,7 @@
         <v>473</v>
       </c>
       <c r="F16" t="s">
-        <v>380</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>261</v>
@@ -11893,15 +12151,12 @@
         <v>247</v>
       </c>
       <c r="AA16" t="s">
-        <v>628</v>
-      </c>
-      <c r="AB16" t="s">
         <v>578</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>498</v>
       </c>
     </row>
@@ -11910,7 +12165,7 @@
         <v>192</v>
       </c>
       <c r="F17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H17" t="s">
         <v>313</v>
@@ -11925,15 +12180,12 @@
         <v>248</v>
       </c>
       <c r="AA17" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>462</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>499</v>
       </c>
     </row>
@@ -11942,7 +12194,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -11957,12 +12209,9 @@
         <v>249</v>
       </c>
       <c r="AA18" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -11971,7 +12220,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>607</v>
+        <v>410</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -11980,12 +12229,9 @@
         <v>458</v>
       </c>
       <c r="AA19" t="s">
-        <v>631</v>
-      </c>
-      <c r="AB19" t="s">
         <v>489</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>500</v>
       </c>
     </row>
@@ -11994,7 +12240,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -12003,12 +12249,9 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>501</v>
       </c>
     </row>
@@ -12017,7 +12260,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -12026,12 +12269,9 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -12040,7 +12280,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>609</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -12049,12 +12289,9 @@
         <v>569</v>
       </c>
       <c r="AA22" t="s">
-        <v>590</v>
-      </c>
-      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -12063,7 +12300,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -12072,12 +12309,9 @@
         <v>466</v>
       </c>
       <c r="AA23" t="s">
-        <v>634</v>
-      </c>
-      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -12086,7 +12320,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -12095,12 +12329,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB24" t="s">
         <v>490</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>528</v>
       </c>
     </row>
@@ -12109,7 +12340,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>610</v>
+        <v>252</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -12118,12 +12349,9 @@
         <v>387</v>
       </c>
       <c r="AA25" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>529</v>
       </c>
     </row>
@@ -12132,7 +12360,7 @@
         <v>597</v>
       </c>
       <c r="F26" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -12141,21 +12369,18 @@
         <v>612</v>
       </c>
       <c r="AA26" t="s">
-        <v>591</v>
-      </c>
-      <c r="AB26" t="s">
         <v>537</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>588</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>533</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -12164,21 +12389,18 @@
         <v>520</v>
       </c>
       <c r="AA27" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>318</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -12187,18 +12409,15 @@
         <v>83</v>
       </c>
       <c r="AA28" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -12207,18 +12426,15 @@
         <v>429</v>
       </c>
       <c r="AA29" t="s">
-        <v>639</v>
-      </c>
-      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -12227,18 +12443,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>640</v>
-      </c>
-      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -12247,187 +12460,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>409</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
       <c r="AA32" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>224</v>
-      </c>
       <c r="F33" t="s">
-        <v>464</v>
+        <v>223</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
       </c>
       <c r="AA33" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
       </c>
       <c r="AA34" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
       </c>
       <c r="AA35" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
-        <v>646</v>
-      </c>
-      <c r="AB36" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
       </c>
       <c r="AA37" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
       </c>
       <c r="AA38" t="s">
-        <v>648</v>
-      </c>
-      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
         <v>534</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>611</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>611</v>
+      </c>
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -12435,7 +12624,7 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -12443,7 +12632,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12451,7 +12640,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>121</v>
       </c>
     </row>
@@ -12459,7 +12648,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12467,7 +12656,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -12475,7 +12664,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>605</v>
       </c>
     </row>
@@ -12483,7 +12672,7 @@
       <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>209</v>
       </c>
     </row>
@@ -12491,7 +12680,7 @@
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -12499,7 +12688,7 @@
       <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>531</v>
       </c>
     </row>
@@ -12507,7 +12696,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12515,7 +12704,7 @@
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>125</v>
       </c>
     </row>
@@ -12523,7 +12712,7 @@
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12531,7 +12720,7 @@
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12539,7 +12728,7 @@
       <c r="H59" t="s">
         <v>535</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>459</v>
       </c>
     </row>
@@ -12547,7 +12736,7 @@
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12555,7 +12744,7 @@
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>343</v>
       </c>
     </row>
@@ -12563,7 +12752,7 @@
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>460</v>
       </c>
     </row>
@@ -12571,7 +12760,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12579,7 +12768,7 @@
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12587,7 +12776,7 @@
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12595,7 +12784,7 @@
       <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12603,7 +12792,7 @@
       <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12611,7 +12800,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>133</v>
       </c>
     </row>
@@ -12619,7 +12808,7 @@
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>134</v>
       </c>
     </row>
@@ -12627,7 +12816,7 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>435</v>
       </c>
     </row>
@@ -12635,7 +12824,7 @@
       <c r="H71" t="s">
         <v>521</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>469</v>
       </c>
     </row>
@@ -12643,7 +12832,7 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>210</v>
       </c>
     </row>
@@ -12651,7 +12840,7 @@
       <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>384</v>
       </c>
     </row>
@@ -12659,7 +12848,7 @@
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>436</v>
       </c>
     </row>
@@ -12667,7 +12856,7 @@
       <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>135</v>
       </c>
     </row>
@@ -12675,7 +12864,7 @@
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12683,7 +12872,7 @@
       <c r="H77" t="s">
         <v>506</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>137</v>
       </c>
     </row>
@@ -12691,7 +12880,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>138</v>
       </c>
     </row>
@@ -12699,7 +12888,7 @@
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>649</v>
       </c>
     </row>
@@ -12707,7 +12896,7 @@
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>193</v>
       </c>
     </row>
@@ -12715,7 +12904,7 @@
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>194</v>
       </c>
     </row>
@@ -12723,7 +12912,7 @@
       <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>448</v>
       </c>
     </row>
@@ -12731,7 +12920,7 @@
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>461</v>
       </c>
     </row>
@@ -12739,7 +12928,7 @@
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12747,7 +12936,7 @@
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12755,7 +12944,7 @@
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>141</v>
       </c>
     </row>
@@ -12763,7 +12952,7 @@
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>492</v>
       </c>
     </row>
@@ -12771,7 +12960,7 @@
       <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>142</v>
       </c>
     </row>
@@ -12779,7 +12968,7 @@
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>143</v>
       </c>
     </row>
@@ -12787,7 +12976,7 @@
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>195</v>
       </c>
     </row>
@@ -12795,7 +12984,7 @@
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>493</v>
       </c>
     </row>
@@ -12803,7 +12992,7 @@
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>575</v>
       </c>
     </row>
@@ -12811,7 +13000,7 @@
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>196</v>
       </c>
     </row>
@@ -12819,7 +13008,7 @@
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>449</v>
       </c>
     </row>
@@ -12827,7 +13016,7 @@
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>197</v>
       </c>
     </row>
@@ -12835,7 +13024,7 @@
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>198</v>
       </c>
     </row>
@@ -12843,7 +13032,7 @@
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>541</v>
       </c>
     </row>
@@ -12851,272 +13040,272 @@
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>656</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9419" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10623" uniqueCount="659">
   <si>
     <t>description</t>
   </si>
@@ -2063,7 +2063,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="255" x14ac:knownFonts="1">
+  <fonts count="289" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3680,8 +3680,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="401">
+  <fills count="449">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5540,6 +5754,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -9908,7 +10394,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="317">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10727,55 +11213,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="373" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="379" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="379" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="382" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="382" fontId="240" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="385" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="388" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="388" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="391" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="391" fontId="244" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="394" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="394" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="397" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="397" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="385" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="388" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="388" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="400" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="400" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="388" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="388" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="397" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="397" fontId="254" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="403" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="406" fontId="257" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="409" fontId="258" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="412" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="260" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="415" fontId="261" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="418" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="421" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="409" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="412" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="424" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="412" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="421" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="427" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="430" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="439" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="442" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="445" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="448" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="445" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -30,12 +30,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10623" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11833" uniqueCount="663">
   <si>
     <t>description</t>
   </si>
@@ -2056,6 +2056,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2075,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="289" x14ac:knownFonts="1">
+  <fonts count="323" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3894,8 +3906,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="449">
+  <fills count="497">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5754,6 +5980,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -10394,7 +10892,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="351">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11315,55 +11813,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="421" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="427" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="427" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="430" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="430" fontId="274" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="433" fontId="275" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="436" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="277" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="439" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="439" fontId="278" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="442" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="442" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="445" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="445" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="433" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="436" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="448" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="448" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="436" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="445" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="445" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="451" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="454" fontId="291" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="457" fontId="292" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="460" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="294" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="463" fontId="295" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="466" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="469" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="457" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="460" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="472" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="460" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="469" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="478" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="481" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="484" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="487" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="490" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="493" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="481" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="484" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="496" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="484" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="493" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11937,7 +12537,7 @@
         <v>484</v>
       </c>
       <c r="Q2" t="s">
-        <v>412</v>
+        <v>660</v>
       </c>
       <c r="R2" t="s">
         <v>425</v>
@@ -12031,6 +12631,9 @@
       <c r="P3" t="s">
         <v>485</v>
       </c>
+      <c r="Q3" t="s">
+        <v>661</v>
+      </c>
       <c r="R3" t="s">
         <v>426</v>
       </c>
@@ -12117,6 +12720,9 @@
       <c r="P4" t="s">
         <v>486</v>
       </c>
+      <c r="Q4" t="s">
+        <v>662</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -12328,7 +12934,7 @@
         <v>345</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>659</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -12390,7 +12996,7 @@
         <v>530</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -12449,7 +13055,7 @@
         <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>481</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -12499,7 +13105,7 @@
         <v>586</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -12543,7 +13149,7 @@
         <v>587</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>467</v>
@@ -12581,7 +13187,7 @@
         <v>447</v>
       </c>
       <c r="L12" t="s">
-        <v>482</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>532</v>
@@ -12619,7 +13225,7 @@
         <v>319</v>
       </c>
       <c r="L13" t="s">
-        <v>385</v>
+        <v>482</v>
       </c>
       <c r="N13" t="s">
         <v>431</v>
@@ -12657,7 +13263,7 @@
         <v>320</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="N14" t="s">
         <v>468</v>
@@ -12692,7 +13298,7 @@
         <v>321</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -12727,7 +13333,7 @@
         <v>322</v>
       </c>
       <c r="L16" t="s">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>536</v>
@@ -12759,7 +13365,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -12788,7 +13394,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -12814,7 +13420,7 @@
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s">
         <v>489</v>
@@ -12834,7 +13440,7 @@
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="AA20" t="s">
         <v>102</v>
@@ -12854,7 +13460,7 @@
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>
@@ -12874,7 +13480,7 @@
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>569</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s">
         <v>104</v>
@@ -12894,7 +13500,7 @@
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>466</v>
+        <v>569</v>
       </c>
       <c r="AA23" t="s">
         <v>105</v>
@@ -12914,7 +13520,7 @@
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="AA24" t="s">
         <v>490</v>
@@ -12934,7 +13540,7 @@
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>106</v>
@@ -12954,7 +13560,7 @@
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>612</v>
+        <v>387</v>
       </c>
       <c r="AA26" t="s">
         <v>537</v>
@@ -12974,7 +13580,7 @@
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>520</v>
+        <v>612</v>
       </c>
       <c r="AA27" t="s">
         <v>107</v>
@@ -12994,7 +13600,7 @@
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>83</v>
+        <v>520</v>
       </c>
       <c r="AA28" t="s">
         <v>108</v>
@@ -13011,7 +13617,7 @@
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="AA29" t="s">
         <v>109</v>
@@ -13028,7 +13634,7 @@
         <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="AA30" t="s">
         <v>110</v>
@@ -13045,7 +13651,7 @@
         <v>213</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>324</v>
@@ -13060,6 +13666,9 @@
       </c>
       <c r="H32" t="s">
         <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>111</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -35,12 +35,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11833" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12442" uniqueCount="669">
   <si>
     <t>description</t>
   </si>
@@ -2068,6 +2068,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2093,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="323" x14ac:knownFonts="1">
+  <fonts count="340" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4120,8 +4138,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="497">
+  <fills count="521">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5980,6 +6105,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -10892,7 +11153,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="368">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11915,55 +12176,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="469" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="475" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="478" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="478" fontId="308" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="481" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="481" fontId="309" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="484" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="484" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="311" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="487" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="487" fontId="312" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="490" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="490" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="493" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="493" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="481" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="481" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="484" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="484" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="496" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="496" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="484" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="484" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="493" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="493" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="499" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="505" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="508" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="511" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="514" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="517" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="505" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="508" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="520" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="508" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="517" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12537,7 +12849,7 @@
         <v>484</v>
       </c>
       <c r="Q2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="R2" t="s">
         <v>425</v>
@@ -12632,7 +12944,7 @@
         <v>485</v>
       </c>
       <c r="Q3" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="R3" t="s">
         <v>426</v>
@@ -12721,7 +13033,7 @@
         <v>486</v>
       </c>
       <c r="Q4" t="s">
-        <v>662</v>
+        <v>412</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -12803,6 +13115,9 @@
       <c r="O5" t="s">
         <v>510</v>
       </c>
+      <c r="Q5" t="s">
+        <v>665</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -13237,7 +13552,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>246</v>
+        <v>666</v>
       </c>
       <c r="AA13" t="s">
         <v>323</v>
@@ -13272,7 +13587,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>577</v>
+        <v>246</v>
       </c>
       <c r="AA14" t="s">
         <v>100</v>
@@ -13307,7 +13622,7 @@
         <v>487</v>
       </c>
       <c r="S15" t="s">
-        <v>251</v>
+        <v>577</v>
       </c>
       <c r="AA15" t="s">
         <v>604</v>
@@ -13342,7 +13657,7 @@
         <v>488</v>
       </c>
       <c r="S16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA16" t="s">
         <v>578</v>
@@ -13371,7 +13686,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA17" t="s">
         <v>101</v>
@@ -13400,7 +13715,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA18" t="s">
         <v>73</v>
@@ -13422,6 +13737,9 @@
       <c r="L19" t="s">
         <v>80</v>
       </c>
+      <c r="S19" t="s">
+        <v>667</v>
+      </c>
       <c r="AA19" t="s">
         <v>489</v>
       </c>
@@ -13442,6 +13760,9 @@
       <c r="L20" t="s">
         <v>458</v>
       </c>
+      <c r="S20" t="s">
+        <v>249</v>
+      </c>
       <c r="AA20" t="s">
         <v>102</v>
       </c>
@@ -13461,6 +13782,9 @@
       </c>
       <c r="L21" t="s">
         <v>81</v>
+      </c>
+      <c r="S21" t="s">
+        <v>668</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -22,12 +22,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -47,16 +47,18 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12442" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13085" uniqueCount="706">
   <si>
     <t>description</t>
   </si>
@@ -2086,6 +2088,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -2093,7 +2206,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="340" x14ac:knownFonts="1">
+  <fonts count="357" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4245,8 +4358,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="521">
+  <fills count="545">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6105,6 +6325,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -11153,7 +11509,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="385">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12276,6 +12632,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="339" fillId="517" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="523" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="526" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="532" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="535" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="538" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="541" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="532" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="544" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="532" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="541" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12690,7 +13097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12790,12 +13197,18 @@
         <v>54</v>
       </c>
       <c r="AD1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>670</v>
+      </c>
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>409</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -12888,12 +13301,18 @@
         <v>172</v>
       </c>
       <c r="AD2" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>698</v>
+      </c>
+      <c r="AF2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>427</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -12980,12 +13399,18 @@
         <v>173</v>
       </c>
       <c r="AD3" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>699</v>
+      </c>
+      <c r="AF3" t="s">
         <v>359</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -13069,12 +13494,18 @@
         <v>174</v>
       </c>
       <c r="AD4" t="s">
+        <v>697</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>700</v>
+      </c>
+      <c r="AF4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>419</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -13145,13 +13576,16 @@
       <c r="AC5" t="s">
         <v>584</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>701</v>
+      </c>
+      <c r="AF5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>420</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -13216,13 +13650,16 @@
       <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>702</v>
+      </c>
+      <c r="AF6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>421</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -13281,13 +13718,16 @@
       <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>703</v>
+      </c>
+      <c r="AF7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>422</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -13305,7 +13745,7 @@
         <v>361</v>
       </c>
       <c r="I8" t="s">
-        <v>325</v>
+        <v>691</v>
       </c>
       <c r="K8" t="s">
         <v>530</v>
@@ -13343,13 +13783,16 @@
       <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>704</v>
+      </c>
+      <c r="AF8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>423</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -13367,7 +13810,7 @@
         <v>362</v>
       </c>
       <c r="I9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -13399,10 +13842,13 @@
       <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>705</v>
+      </c>
+      <c r="AF9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13417,7 +13863,7 @@
         <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>586</v>
+        <v>326</v>
       </c>
       <c r="L10" t="s">
         <v>481</v>
@@ -13443,10 +13889,10 @@
       <c r="AC10" t="s">
         <v>585</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -13461,7 +13907,7 @@
         <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L11" t="s">
         <v>78</v>
@@ -13481,10 +13927,10 @@
       <c r="AA11" t="s">
         <v>254</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -13499,7 +13945,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>447</v>
+        <v>587</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -13519,10 +13965,10 @@
       <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -13537,7 +13983,7 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="L13" t="s">
         <v>482</v>
@@ -13557,10 +14003,10 @@
       <c r="AA13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -13575,7 +14021,7 @@
         <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>385</v>
@@ -13592,10 +14038,10 @@
       <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>496</v>
       </c>
     </row>
@@ -13610,7 +14056,7 @@
         <v>260</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -13627,10 +14073,10 @@
       <c r="AA15" t="s">
         <v>604</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>497</v>
       </c>
     </row>
@@ -13645,7 +14091,7 @@
         <v>261</v>
       </c>
       <c r="I16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -13662,10 +14108,10 @@
       <c r="AA16" t="s">
         <v>578</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>498</v>
       </c>
     </row>
@@ -13679,6 +14125,9 @@
       <c r="H17" t="s">
         <v>313</v>
       </c>
+      <c r="I17" t="s">
+        <v>322</v>
+      </c>
       <c r="L17" t="s">
         <v>483</v>
       </c>
@@ -13691,10 +14140,10 @@
       <c r="AA17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>462</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>499</v>
       </c>
     </row>
@@ -13708,6 +14157,9 @@
       <c r="H18" t="s">
         <v>87</v>
       </c>
+      <c r="I18" t="s">
+        <v>692</v>
+      </c>
       <c r="L18" t="s">
         <v>79</v>
       </c>
@@ -13720,7 +14172,7 @@
       <c r="AA18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -13729,7 +14181,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>410</v>
+        <v>671</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -13743,7 +14195,7 @@
       <c r="AA19" t="s">
         <v>489</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>500</v>
       </c>
     </row>
@@ -13752,7 +14204,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>607</v>
+        <v>672</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -13766,7 +14218,7 @@
       <c r="AA20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>501</v>
       </c>
     </row>
@@ -13775,7 +14227,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>608</v>
+        <v>410</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -13789,7 +14241,7 @@
       <c r="AA21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -13798,7 +14250,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -13809,7 +14261,7 @@
       <c r="AA22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -13818,7 +14270,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>608</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -13829,7 +14281,7 @@
       <c r="AA23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -13838,7 +14290,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>609</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -13849,7 +14301,7 @@
       <c r="AA24" t="s">
         <v>490</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>528</v>
       </c>
     </row>
@@ -13858,7 +14310,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -13869,7 +14321,7 @@
       <c r="AA25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>529</v>
       </c>
     </row>
@@ -13878,18 +14330,18 @@
         <v>597</v>
       </c>
       <c r="F26" t="s">
-        <v>610</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>673</v>
       </c>
       <c r="L26" t="s">
         <v>387</v>
       </c>
       <c r="AA26" t="s">
-        <v>537</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>693</v>
+      </c>
+      <c r="AH26" t="s">
         <v>233</v>
       </c>
     </row>
@@ -13898,18 +14350,18 @@
         <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>533</v>
+        <v>252</v>
       </c>
       <c r="H27" t="s">
-        <v>278</v>
+        <v>674</v>
       </c>
       <c r="L27" t="s">
         <v>612</v>
       </c>
       <c r="AA27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>537</v>
+      </c>
+      <c r="AH27" t="s">
         <v>234</v>
       </c>
     </row>
@@ -13918,16 +14370,16 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>610</v>
       </c>
       <c r="H28" t="s">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="L28" t="s">
         <v>520</v>
       </c>
       <c r="AA28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -13935,898 +14387,959 @@
         <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>318</v>
+        <v>533</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s">
         <v>83</v>
       </c>
       <c r="AA29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>669</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s">
         <v>429</v>
       </c>
       <c r="AA30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>670</v>
       </c>
       <c r="F31" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="H31" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>324</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>409</v>
+      </c>
+      <c r="F33" t="s">
+        <v>444</v>
+      </c>
+      <c r="H33" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>223</v>
-      </c>
-      <c r="H33" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA34" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>464</v>
-      </c>
-      <c r="H34" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>465</v>
+        <v>223</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="AA35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H36" t="s">
-        <v>327</v>
+        <v>505</v>
       </c>
       <c r="AA36" t="s">
-        <v>538</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>62</v>
+        <v>465</v>
       </c>
       <c r="H37" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="AA37" t="s">
-        <v>115</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>63</v>
+        <v>411</v>
       </c>
       <c r="H38" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="AA38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA39" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AA40" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AA41" t="s">
-        <v>335</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="AA42" t="s">
-        <v>433</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>534</v>
+        <v>675</v>
       </c>
       <c r="AA43" t="s">
-        <v>548</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s">
-        <v>388</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>611</v>
       </c>
-      <c r="H45" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA47" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="AA48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="AA49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="AA50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AA51" t="s">
-        <v>605</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>363</v>
+        <v>207</v>
       </c>
       <c r="AA52" t="s">
-        <v>209</v>
+        <v>605</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="AA53" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>351</v>
+        <v>676</v>
       </c>
       <c r="AA54" t="s">
-        <v>531</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>328</v>
+        <v>677</v>
       </c>
       <c r="AA55" t="s">
-        <v>124</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>264</v>
+        <v>678</v>
       </c>
       <c r="AA56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>288</v>
+        <v>679</v>
       </c>
       <c r="AA57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="AA58" t="s">
-        <v>491</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>535</v>
+        <v>363</v>
       </c>
       <c r="AA59" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AA60" t="s">
-        <v>127</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="AA61" t="s">
-        <v>343</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="AA62" t="s">
-        <v>460</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="AA63" t="s">
-        <v>128</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AA64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>306</v>
+        <v>535</v>
       </c>
       <c r="AA65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="AA66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>365</v>
+        <v>680</v>
       </c>
       <c r="AA67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>342</v>
+        <v>681</v>
       </c>
       <c r="AA68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>309</v>
+        <v>682</v>
       </c>
       <c r="AA69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="AA70" t="s">
-        <v>435</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>521</v>
+        <v>683</v>
       </c>
       <c r="AA71" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>310</v>
+        <v>684</v>
       </c>
       <c r="AA72" t="s">
-        <v>210</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>405</v>
+        <v>334</v>
       </c>
       <c r="AA73" t="s">
-        <v>384</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AA74" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="AA75" t="s">
-        <v>135</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>258</v>
+        <v>364</v>
       </c>
       <c r="AA76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>506</v>
+        <v>365</v>
       </c>
       <c r="AA77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="AA79" t="s">
-        <v>649</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="AA80" t="s">
-        <v>193</v>
+        <v>649</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>287</v>
+        <v>521</v>
       </c>
       <c r="AA81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>424</v>
+        <v>310</v>
       </c>
       <c r="AA82" t="s">
-        <v>448</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>329</v>
+        <v>405</v>
       </c>
       <c r="AA83" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>266</v>
+        <v>685</v>
       </c>
       <c r="AA84" t="s">
-        <v>139</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>277</v>
+        <v>686</v>
       </c>
       <c r="AA85" t="s">
-        <v>140</v>
+        <v>694</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="AA86" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>272</v>
+        <v>506</v>
       </c>
       <c r="AA87" t="s">
-        <v>492</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>523</v>
+        <v>341</v>
       </c>
       <c r="AA88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AA89" t="s">
-        <v>143</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>284</v>
+        <v>687</v>
       </c>
       <c r="AA90" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>268</v>
+        <v>688</v>
       </c>
       <c r="AA91" t="s">
-        <v>493</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="AA92" t="s">
-        <v>575</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>301</v>
+        <v>424</v>
       </c>
       <c r="AA93" t="s">
-        <v>196</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="AA94" t="s">
-        <v>449</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="AA95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="AA96" t="s">
-        <v>198</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="AA97" t="s">
-        <v>541</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>274</v>
       </c>
-      <c r="AA98" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>494</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>650</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>651</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>518</v>
+        <v>650</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>145</v>
+        <v>651</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>146</v>
+        <v>519</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>580</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>149</v>
+        <v>580</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>581</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>151</v>
+        <v>581</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>582</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>157</v>
+        <v>582</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>606</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>161</v>
+        <v>539</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>652</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>583</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>164</v>
+        <v>652</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>165</v>
+        <v>583</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>653</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>654</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>656</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_buildnum.xlsx
@@ -23,42 +23,45 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13085" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13866" uniqueCount="792">
   <si>
     <t>description</t>
   </si>
@@ -2199,6 +2202,264 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2467,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="357" x14ac:knownFonts="1">
+  <fonts count="374" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4465,8 +4726,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="545">
+  <fills count="569">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6325,6 +6693,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -11509,7 +12013,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="402">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12583,106 +13087,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="493" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="499" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="499" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="502" fontId="325" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="505" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="505" fontId="326" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="508" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="508" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="511" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="511" fontId="329" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="514" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="514" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="517" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="517" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="505" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="505" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="508" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="508" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="520" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="520" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="508" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="508" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="517" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="517" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="523" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="523" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="526" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="526" fontId="342" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="529" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="532" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="532" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="535" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="535" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="538" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="538" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="541" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="541" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="529" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="532" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="532" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="544" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="544" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="532" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="532" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="541" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="541" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="547" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="550" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="553" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="556" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="559" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="562" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="565" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="553" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="556" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="568" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="556" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="565" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13097,7 +13652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13128,87 +13683,99 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>706</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>344</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>707</v>
+      </c>
+      <c r="O1" t="s">
         <v>330</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>503</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>473</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>192</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>708</v>
+      </c>
+      <c r="U1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>236</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>391</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>407</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>408</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>352</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>392</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>597</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>588</v>
+      </c>
+      <c r="AE1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>669</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>670</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>409</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -13232,87 +13799,99 @@
         <v>56</v>
       </c>
       <c r="G2" t="s">
+        <v>709</v>
+      </c>
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>445</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>658</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>595</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>311</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>382</v>
+      </c>
+      <c r="O2" t="s">
         <v>379</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>430</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>507</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>484</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>663</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>731</v>
+      </c>
+      <c r="U2" t="s">
         <v>425</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>250</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>599</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>393</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>414</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>415</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>376</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>402</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>601</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>172</v>
       </c>
-      <c r="AD2" t="s">
-        <v>695</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AI2" t="s">
         <v>698</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>179</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>427</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -13333,84 +13912,96 @@
         <v>453</v>
       </c>
       <c r="G3" t="s">
+        <v>710</v>
+      </c>
+      <c r="H3" t="s">
         <v>360</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>77</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>346</v>
       </c>
-      <c r="L3" t="s">
-        <v>338</v>
-      </c>
       <c r="M3" t="s">
+        <v>717</v>
+      </c>
+      <c r="N3" t="s">
+        <v>718</v>
+      </c>
+      <c r="O3" t="s">
         <v>331</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>84</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>508</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>485</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>664</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>732</v>
+      </c>
+      <c r="U3" t="s">
         <v>426</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>237</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>600</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>394</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>416</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>377</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>403</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>602</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
-        <v>696</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>788</v>
+      </c>
+      <c r="AI3" t="s">
         <v>699</v>
       </c>
-      <c r="AF3" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>789</v>
+      </c>
+      <c r="AK3" t="s">
         <v>180</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -13428,84 +14019,96 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>711</v>
+      </c>
+      <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>382</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>446</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>479</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>347</v>
       </c>
-      <c r="L4" t="s">
-        <v>571</v>
-      </c>
       <c r="M4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N4" t="s">
+        <v>383</v>
+      </c>
+      <c r="O4" t="s">
         <v>332</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>509</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>486</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>412</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>733</v>
+      </c>
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>238</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>214</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>395</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>417</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>353</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>404</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>603</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE4" t="s">
         <v>572</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
-        <v>697</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>695</v>
+      </c>
+      <c r="AI4" t="s">
         <v>700</v>
       </c>
-      <c r="AF4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK4" t="s">
         <v>419</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -13523,69 +14126,84 @@
         <v>454</v>
       </c>
       <c r="G5" t="s">
+        <v>712</v>
+      </c>
+      <c r="H5" t="s">
         <v>428</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>540</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>455</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>480</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>348</v>
       </c>
-      <c r="L5" t="s">
-        <v>235</v>
+      <c r="M5" t="s">
+        <v>571</v>
       </c>
       <c r="N5" t="s">
+        <v>719</v>
+      </c>
+      <c r="P5" t="s">
         <v>85</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>510</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>665</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>604</v>
+      </c>
+      <c r="U5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>239</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>215</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>396</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>418</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>354</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE5" t="s">
         <v>547</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>584</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>696</v>
+      </c>
+      <c r="AI5" t="s">
         <v>701</v>
       </c>
-      <c r="AF5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK5" t="s">
         <v>420</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -13603,69 +14221,84 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
+        <v>713</v>
+      </c>
+      <c r="H6" t="s">
         <v>478</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>333</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>443</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>522</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>596</v>
       </c>
-      <c r="L6" t="s">
-        <v>457</v>
+      <c r="M6" t="s">
+        <v>235</v>
       </c>
       <c r="N6" t="s">
+        <v>720</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>511</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>578</v>
+      </c>
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>240</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>216</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>397</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>356</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>440</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>175</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>697</v>
+      </c>
+      <c r="AI6" t="s">
         <v>702</v>
       </c>
-      <c r="AF6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK6" t="s">
         <v>421</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>706</v>
       </c>
       <c r="B7" t="s">
         <v>372</v>
@@ -13673,67 +14306,79 @@
       <c r="F7" t="s">
         <v>221</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>714</v>
+      </c>
+      <c r="I7" t="s">
         <v>383</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>442</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>570</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>345</v>
       </c>
-      <c r="L7" t="s">
-        <v>659</v>
+      <c r="M7" t="s">
+        <v>457</v>
       </c>
       <c r="N7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" t="s">
         <v>311</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>512</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>241</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>217</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>398</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>355</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>441</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>176</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>703</v>
       </c>
-      <c r="AF7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>790</v>
+      </c>
+      <c r="AK7" t="s">
         <v>422</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
@@ -13741,64 +14386,73 @@
       <c r="F8" t="s">
         <v>315</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>361</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>691</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>530</v>
       </c>
-      <c r="L8" t="s">
-        <v>70</v>
+      <c r="M8" t="s">
+        <v>659</v>
       </c>
       <c r="N8" t="s">
+        <v>721</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>513</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>734</v>
+      </c>
+      <c r="U8" t="s">
         <v>89</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>242</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>386</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>399</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>357</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>177</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>704</v>
       </c>
-      <c r="AF8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK8" t="s">
         <v>423</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>374</v>
@@ -13806,1541 +14460,1870 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>362</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>325</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
+      <c r="M9" t="s">
+        <v>70</v>
       </c>
       <c r="N9" t="s">
+        <v>722</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>514</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s">
         <v>90</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>243</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>413</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>400</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>358</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>621</v>
+      </c>
+      <c r="AE9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>178</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>705</v>
       </c>
-      <c r="AF9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>302</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>326</v>
       </c>
-      <c r="L10" t="s">
-        <v>481</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
       <c r="N10" t="s">
+        <v>723</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>515</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>735</v>
+      </c>
+      <c r="U10" t="s">
         <v>432</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>244</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>401</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>585</v>
       </c>
-      <c r="AF10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>657</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>349</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>586</v>
       </c>
-      <c r="L11" t="s">
-        <v>78</v>
+      <c r="M11" t="s">
+        <v>481</v>
       </c>
       <c r="N11" t="s">
+        <v>724</v>
+      </c>
+      <c r="P11" t="s">
         <v>467</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>516</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>489</v>
+      </c>
+      <c r="U11" t="s">
         <v>91</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>613</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE11" t="s">
         <v>254</v>
       </c>
-      <c r="AF11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="F12" t="s">
         <v>546</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>270</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>587</v>
       </c>
-      <c r="L12" t="s">
-        <v>37</v>
+      <c r="M12" t="s">
+        <v>78</v>
       </c>
       <c r="N12" t="s">
+        <v>725</v>
+      </c>
+      <c r="P12" t="s">
         <v>532</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>598</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>736</v>
+      </c>
+      <c r="U12" t="s">
         <v>40</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>245</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE12" t="s">
         <v>99</v>
       </c>
-      <c r="AF12" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>316</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>259</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>447</v>
       </c>
-      <c r="L13" t="s">
-        <v>482</v>
+      <c r="M13" t="s">
+        <v>37</v>
       </c>
       <c r="N13" t="s">
+        <v>726</v>
+      </c>
+      <c r="P13" t="s">
         <v>431</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>517</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>737</v>
+      </c>
+      <c r="U13" t="s">
         <v>92</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>666</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE13" t="s">
         <v>323</v>
       </c>
-      <c r="AF13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL13" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>707</v>
       </c>
       <c r="F14" t="s">
         <v>338</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>312</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>319</v>
       </c>
-      <c r="L14" t="s">
-        <v>385</v>
+      <c r="M14" t="s">
+        <v>482</v>
       </c>
       <c r="N14" t="s">
+        <v>727</v>
+      </c>
+      <c r="P14" t="s">
         <v>468</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>738</v>
+      </c>
+      <c r="U14" t="s">
         <v>93</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>246</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE14" t="s">
         <v>100</v>
       </c>
-      <c r="AF14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>791</v>
+      </c>
+      <c r="AL14" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>330</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>260</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>320</v>
       </c>
-      <c r="L15" t="s">
-        <v>17</v>
+      <c r="M15" t="s">
+        <v>385</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
+        <v>728</v>
+      </c>
+      <c r="P15" t="s">
+        <v>730</v>
+      </c>
+      <c r="T15" t="s">
+        <v>739</v>
+      </c>
+      <c r="U15" t="s">
         <v>487</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>577</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE15" t="s">
         <v>604</v>
       </c>
-      <c r="AF15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL15" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>261</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>321</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
+      <c r="M16" t="s">
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>536</v>
-      </c>
-      <c r="R16" t="s">
+        <v>729</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>740</v>
+      </c>
+      <c r="U16" t="s">
         <v>488</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>251</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE16" t="s">
         <v>578</v>
       </c>
-      <c r="AF16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL16" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>503</v>
       </c>
       <c r="F17" t="s">
         <v>380</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>313</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>322</v>
       </c>
-      <c r="L17" t="s">
-        <v>483</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>536</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
         <v>247</v>
       </c>
-      <c r="AA17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>462</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>776</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL17" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>473</v>
       </c>
       <c r="F18" t="s">
         <v>381</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>87</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>692</v>
       </c>
-      <c r="L18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>483</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>741</v>
+      </c>
+      <c r="V18" t="s">
         <v>248</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE18" t="s">
         <v>73</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL18" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
         <v>671</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="L19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>742</v>
+      </c>
+      <c r="V19" t="s">
         <v>667</v>
       </c>
-      <c r="AA19" t="s">
-        <v>489</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>777</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL19" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>708</v>
       </c>
       <c r="F20" t="s">
         <v>672</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>292</v>
       </c>
-      <c r="L20" t="s">
-        <v>458</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s">
+        <v>743</v>
+      </c>
+      <c r="V20" t="s">
         <v>249</v>
       </c>
-      <c r="AA20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>489</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>462</v>
+      </c>
+      <c r="AL20" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>391</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>410</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>293</v>
       </c>
-      <c r="L21" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>458</v>
+      </c>
+      <c r="T21" t="s">
+        <v>744</v>
+      </c>
+      <c r="V21" t="s">
         <v>668</v>
       </c>
-      <c r="AA21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>778</v>
+      </c>
+      <c r="AL21" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>407</v>
+        <v>236</v>
       </c>
       <c r="F22" t="s">
         <v>607</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>294</v>
       </c>
-      <c r="L22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>590</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL22" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>408</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>608</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>295</v>
       </c>
-      <c r="L23" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s">
+        <v>746</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL23" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="F24" t="s">
         <v>609</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>286</v>
       </c>
-      <c r="L24" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>490</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>569</v>
+      </c>
+      <c r="T24" t="s">
+        <v>747</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>275</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>466</v>
+      </c>
+      <c r="T25" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>597</v>
+        <v>408</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>673</v>
       </c>
-      <c r="L26" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>693</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>352</v>
       </c>
       <c r="F27" t="s">
         <v>252</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>674</v>
       </c>
-      <c r="L27" t="s">
-        <v>612</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>537</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>387</v>
+      </c>
+      <c r="T27" t="s">
+        <v>750</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>591</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="F28" t="s">
         <v>610</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>74</v>
       </c>
-      <c r="L28" t="s">
-        <v>520</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>107</v>
+      <c r="M28" t="s">
+        <v>612</v>
+      </c>
+      <c r="T28" t="s">
+        <v>751</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>597</v>
       </c>
       <c r="F29" t="s">
         <v>533</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>278</v>
       </c>
-      <c r="L29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>108</v>
+      <c r="M29" t="s">
+        <v>520</v>
+      </c>
+      <c r="T29" t="s">
+        <v>752</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>669</v>
+        <v>588</v>
       </c>
       <c r="F30" t="s">
         <v>60</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>262</v>
       </c>
-      <c r="L30" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>109</v>
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+      <c r="T30" t="s">
+        <v>753</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>670</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
         <v>318</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>279</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>110</v>
+      <c r="M31" t="s">
+        <v>429</v>
+      </c>
+      <c r="T31" t="s">
+        <v>754</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
         <v>61</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>280</v>
       </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>324</v>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>755</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>409</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
         <v>444</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>213</v>
       </c>
-      <c r="AA33" t="s">
-        <v>111</v>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>756</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>669</v>
       </c>
       <c r="F34" t="s">
         <v>222</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>271</v>
       </c>
-      <c r="AA34" t="s">
-        <v>112</v>
+      <c r="T34" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>670</v>
+      </c>
       <c r="F35" t="s">
         <v>223</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>281</v>
       </c>
-      <c r="AA35" t="s">
-        <v>113</v>
+      <c r="T35" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
       <c r="F36" t="s">
         <v>464</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>505</v>
       </c>
-      <c r="AA36" t="s">
-        <v>114</v>
+      <c r="T36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>645</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>409</v>
+      </c>
       <c r="F37" t="s">
         <v>465</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>256</v>
       </c>
-      <c r="AA37" t="s">
-        <v>538</v>
+      <c r="T37" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>646</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>224</v>
+      </c>
       <c r="F38" t="s">
         <v>411</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>327</v>
       </c>
-      <c r="AA38" t="s">
-        <v>115</v>
+      <c r="T38" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>771</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>62</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>303</v>
       </c>
-      <c r="AA39" t="s">
-        <v>116</v>
+      <c r="T39" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>647</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>63</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>257</v>
       </c>
-      <c r="AA40" t="s">
-        <v>206</v>
+      <c r="T40" t="s">
+        <v>759</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>648</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>304</v>
       </c>
-      <c r="AA41" t="s">
-        <v>117</v>
+      <c r="T41" t="s">
+        <v>760</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>772</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>65</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>263</v>
       </c>
-      <c r="AA42" t="s">
-        <v>335</v>
+      <c r="T42" t="s">
+        <v>761</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>773</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>66</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>675</v>
       </c>
-      <c r="AA43" t="s">
-        <v>433</v>
+      <c r="T43" t="s">
+        <v>762</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>774</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>67</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>76</v>
       </c>
-      <c r="AA44" t="s">
-        <v>548</v>
+      <c r="T44" t="s">
+        <v>763</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>775</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>68</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>208</v>
       </c>
-      <c r="AA45" t="s">
-        <v>388</v>
+      <c r="T45" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>69</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>534</v>
       </c>
-      <c r="AA46" t="s">
-        <v>118</v>
+      <c r="T46" t="s">
+        <v>765</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>611</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>285</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>766</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>296</v>
+      </c>
+      <c r="T48" t="s">
+        <v>767</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>297</v>
+      </c>
+      <c r="T49" t="s">
+        <v>768</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>340</v>
+      </c>
+      <c r="T50" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>339</v>
+      </c>
+      <c r="T51" t="s">
+        <v>769</v>
+      </c>
+      <c r="AE51" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE52" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>677</v>
+      </c>
+      <c r="AE55" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE56" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE57" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>676</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>677</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE59" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>678</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>715</v>
+      </c>
+      <c r="AE61" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>716</v>
+      </c>
+      <c r="AE62" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE64" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE65" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>535</v>
+      </c>
+      <c r="AE67" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE68" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>680</v>
+      </c>
+      <c r="AE69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>535</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE71" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>680</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE72" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>681</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE75" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>683</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE76" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>684</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE77" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE78" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE79" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE80" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE81" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE82" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE83" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE84" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE85" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>521</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>685</v>
+      </c>
+      <c r="AE86" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>686</v>
+      </c>
+      <c r="AE87" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE88" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>685</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE89" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>686</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE90" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE91" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>687</v>
+      </c>
+      <c r="AE92" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>688</v>
+      </c>
+      <c r="AE93" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE94" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>687</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>688</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE97" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE98" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE99" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE100" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE102" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE103" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE104" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>523</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>690</v>
+      </c>
+      <c r="AE105" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE106" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE107" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>689</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE108" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>690</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE109" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE110" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE111" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE112" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE113" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>656</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>786</v>
       </c>
     </row>
   </sheetData>
